--- a/Översikt HEBY.xlsx
+++ b/Översikt HEBY.xlsx
@@ -575,7 +575,7 @@
         <v>45944.31111111111</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -681,7 +681,7 @@
         <v>45946.48280092593</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -785,7 +785,7 @@
         <v>45729.58457175926</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -880,7 +880,7 @@
         <v>45944.32907407408</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -982,7 +982,7 @@
         <v>44914</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1078,7 +1078,7 @@
         <v>45187</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1174,7 +1174,7 @@
         <v>45113</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1273,7 +1273,7 @@
         <v>45777</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1372,7 +1372,7 @@
         <v>45965.35824074074</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1471,7 +1471,7 @@
         <v>45777</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1570,7 +1570,7 @@
         <v>45618.51541666667</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1668,7 +1668,7 @@
         <v>44914</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1762,7 +1762,7 @@
         <v>45601</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1860,7 +1860,7 @@
         <v>45240</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1949,7 +1949,7 @@
         <v>45117</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2042,7 +2042,7 @@
         <v>45687.57645833334</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2130,7 +2130,7 @@
         <v>45965.37201388889</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2226,7 +2226,7 @@
         <v>45965.3762037037</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2322,7 +2322,7 @@
         <v>45485</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2415,7 +2415,7 @@
         <v>45124</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2507,7 +2507,7 @@
         <v>45123</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2603,7 +2603,7 @@
         <v>44573</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2695,7 +2695,7 @@
         <v>46003.51346064815</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2786,7 +2786,7 @@
         <v>45222</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2882,7 +2882,7 @@
         <v>45618.5216087963</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2976,7 +2976,7 @@
         <v>45313</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3066,7 +3066,7 @@
         <v>45824.63471064815</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3152,7 +3152,7 @@
         <v>45930.8557175926</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3238,7 +3238,7 @@
         <v>45170</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3333,7 +3333,7 @@
         <v>45992.55565972222</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3423,7 +3423,7 @@
         <v>45993</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3513,7 +3513,7 @@
         <v>45014</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3599,7 +3599,7 @@
         <v>45573.49663194444</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3685,7 +3685,7 @@
         <v>44847</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3774,7 +3774,7 @@
         <v>44858.36881944445</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3863,7 +3863,7 @@
         <v>44826.59002314815</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3948,7 +3948,7 @@
         <v>45093</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4037,7 +4037,7 @@
         <v>44376</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4122,7 +4122,7 @@
         <v>45799</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4216,7 +4216,7 @@
         <v>45411</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4310,7 +4310,7 @@
         <v>44609</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4395,7 +4395,7 @@
         <v>45944</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4480,7 +4480,7 @@
         <v>45946.38788194444</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4565,7 +4565,7 @@
         <v>45453</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4655,7 +4655,7 @@
         <v>45278.72756944445</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4749,7 +4749,7 @@
         <v>44308</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4838,7 +4838,7 @@
         <v>45883</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4932,7 +4932,7 @@
         <v>45622</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5022,7 +5022,7 @@
         <v>45982.42078703704</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5107,7 +5107,7 @@
         <v>45982.41844907407</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5192,7 +5192,7 @@
         <v>45985.52939814814</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5281,7 +5281,7 @@
         <v>45982.41523148148</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5366,7 +5366,7 @@
         <v>44568</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5451,7 +5451,7 @@
         <v>45617</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5545,7 +5545,7 @@
         <v>45993.99002314815</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5630,7 +5630,7 @@
         <v>45762</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5715,7 +5715,7 @@
         <v>44395</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5804,7 +5804,7 @@
         <v>46055.65600694445</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5889,7 +5889,7 @@
         <v>44501.46684027778</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5978,7 +5978,7 @@
         <v>45098</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6063,7 +6063,7 @@
         <v>45355</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6148,7 +6148,7 @@
         <v>45469</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6233,7 +6233,7 @@
         <v>45231.66261574074</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6318,7 +6318,7 @@
         <v>44370</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6412,7 +6412,7 @@
         <v>44376</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6497,7 +6497,7 @@
         <v>45777</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6587,7 +6587,7 @@
         <v>45419</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6677,7 +6677,7 @@
         <v>44756</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6739,7 +6739,7 @@
         <v>44886</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6796,7 +6796,7 @@
         <v>44278</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6853,7 +6853,7 @@
         <v>44334</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6910,7 +6910,7 @@
         <v>44309</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6967,7 +6967,7 @@
         <v>44404</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7024,7 +7024,7 @@
         <v>44404</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7081,7 +7081,7 @@
         <v>44404</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7138,7 +7138,7 @@
         <v>44620</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7195,7 +7195,7 @@
         <v>44477</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7252,7 +7252,7 @@
         <v>44454.586875</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7309,7 +7309,7 @@
         <v>44847</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7366,7 +7366,7 @@
         <v>44431</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7423,7 +7423,7 @@
         <v>44754</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7480,7 +7480,7 @@
         <v>44250.4206712963</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7537,7 +7537,7 @@
         <v>44466</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7594,7 +7594,7 @@
         <v>44615.68924768519</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7651,7 +7651,7 @@
         <v>44315</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7708,7 +7708,7 @@
         <v>44586</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7765,7 +7765,7 @@
         <v>44516</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7822,7 +7822,7 @@
         <v>44511.45233796296</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7879,7 +7879,7 @@
         <v>44285</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7936,7 +7936,7 @@
         <v>44757.5916087963</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7993,7 +7993,7 @@
         <v>44585</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -8050,7 +8050,7 @@
         <v>44508</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -8107,7 +8107,7 @@
         <v>44285</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -8164,7 +8164,7 @@
         <v>44509</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -8221,7 +8221,7 @@
         <v>44259</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -8278,7 +8278,7 @@
         <v>44445</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8335,7 +8335,7 @@
         <v>44756.58483796296</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8397,7 +8397,7 @@
         <v>44578</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8459,7 +8459,7 @@
         <v>44788.35174768518</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8516,7 +8516,7 @@
         <v>44852.64951388889</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8573,7 +8573,7 @@
         <v>44480.4409837963</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8630,7 +8630,7 @@
         <v>44508.53688657407</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8692,7 +8692,7 @@
         <v>44509</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8749,7 +8749,7 @@
         <v>44411</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8806,7 +8806,7 @@
         <v>44505</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8863,7 +8863,7 @@
         <v>44308</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8925,7 +8925,7 @@
         <v>44371</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8987,7 +8987,7 @@
         <v>44389</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -9044,7 +9044,7 @@
         <v>44390</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -9106,7 +9106,7 @@
         <v>44452.63615740741</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -9163,7 +9163,7 @@
         <v>44280</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -9220,7 +9220,7 @@
         <v>44517.59695601852</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -9282,7 +9282,7 @@
         <v>44333</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9339,7 +9339,7 @@
         <v>44360</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9396,7 +9396,7 @@
         <v>44516.55341435185</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9453,7 +9453,7 @@
         <v>44565</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9510,7 +9510,7 @@
         <v>44844</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9567,7 +9567,7 @@
         <v>44712</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9624,7 +9624,7 @@
         <v>44351.32269675926</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9681,7 +9681,7 @@
         <v>44433.62458333333</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9738,7 +9738,7 @@
         <v>44550</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9795,7 +9795,7 @@
         <v>44832.68144675926</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9852,7 +9852,7 @@
         <v>44524</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9909,7 +9909,7 @@
         <v>44509</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9966,7 +9966,7 @@
         <v>44735</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -10023,7 +10023,7 @@
         <v>44743.633125</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -10080,7 +10080,7 @@
         <v>44519</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -10142,7 +10142,7 @@
         <v>44287</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -10199,7 +10199,7 @@
         <v>44850.31813657407</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -10256,7 +10256,7 @@
         <v>44614.36751157408</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10313,7 +10313,7 @@
         <v>44491.67335648148</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10370,7 +10370,7 @@
         <v>44725.37670138889</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10427,7 +10427,7 @@
         <v>44522.3946875</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10484,7 +10484,7 @@
         <v>44364.34809027778</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10541,7 +10541,7 @@
         <v>44832</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10598,7 +10598,7 @@
         <v>44748</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10655,7 +10655,7 @@
         <v>44368</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10712,7 +10712,7 @@
         <v>44249</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10769,7 +10769,7 @@
         <v>44459</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10826,7 +10826,7 @@
         <v>44459</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10883,7 +10883,7 @@
         <v>44342</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10945,7 +10945,7 @@
         <v>44382.32331018519</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -11002,7 +11002,7 @@
         <v>44551</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -11059,7 +11059,7 @@
         <v>44349</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -11116,7 +11116,7 @@
         <v>44685</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -11173,7 +11173,7 @@
         <v>44769</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -11230,7 +11230,7 @@
         <v>44650.66174768518</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -11292,7 +11292,7 @@
         <v>44655.59482638889</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11349,7 +11349,7 @@
         <v>44722.88414351852</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11406,7 +11406,7 @@
         <v>44700.53931712963</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11463,7 +11463,7 @@
         <v>44532</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11520,7 +11520,7 @@
         <v>44573</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11577,7 +11577,7 @@
         <v>44753.43171296296</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11634,7 +11634,7 @@
         <v>44614.53547453704</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11691,7 +11691,7 @@
         <v>45673.5980787037</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11748,7 +11748,7 @@
         <v>44841.6265625</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11805,7 +11805,7 @@
         <v>44942.40657407408</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11862,7 +11862,7 @@
         <v>44609.66260416667</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11919,7 +11919,7 @@
         <v>44858.36759259259</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11976,7 +11976,7 @@
         <v>45231.863125</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -12033,7 +12033,7 @@
         <v>45645.46418981482</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -12090,7 +12090,7 @@
         <v>44552</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -12147,7 +12147,7 @@
         <v>44300</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -12204,7 +12204,7 @@
         <v>44802</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -12261,7 +12261,7 @@
         <v>45714.46084490741</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12318,7 +12318,7 @@
         <v>45133.31494212963</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12375,7 +12375,7 @@
         <v>44697.39297453704</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12432,7 +12432,7 @@
         <v>45630</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12489,7 +12489,7 @@
         <v>44732</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12546,7 +12546,7 @@
         <v>45599</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12608,7 +12608,7 @@
         <v>44849.86905092592</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12665,7 +12665,7 @@
         <v>45117</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12722,7 +12722,7 @@
         <v>45670</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12779,7 +12779,7 @@
         <v>44694</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12836,7 +12836,7 @@
         <v>45035.75166666666</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12893,7 +12893,7 @@
         <v>44865.38575231482</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12950,7 +12950,7 @@
         <v>44391</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -13007,7 +13007,7 @@
         <v>45749.80582175926</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -13064,7 +13064,7 @@
         <v>45748.62291666667</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -13121,7 +13121,7 @@
         <v>44960.48622685186</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -13178,7 +13178,7 @@
         <v>45761</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -13235,7 +13235,7 @@
         <v>45645.47047453704</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13292,7 +13292,7 @@
         <v>44844.57619212963</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13349,7 +13349,7 @@
         <v>45539.50813657408</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13406,7 +13406,7 @@
         <v>44914.41196759259</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13463,7 +13463,7 @@
         <v>44538</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13520,7 +13520,7 @@
         <v>45539.51753472222</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13577,7 +13577,7 @@
         <v>44917.65171296296</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13634,7 +13634,7 @@
         <v>44543</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13691,7 +13691,7 @@
         <v>45688</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13748,7 +13748,7 @@
         <v>45215</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13805,7 +13805,7 @@
         <v>44788</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13862,7 +13862,7 @@
         <v>44810</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13924,7 +13924,7 @@
         <v>45705</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13986,7 +13986,7 @@
         <v>45699.54886574074</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -14043,7 +14043,7 @@
         <v>45331</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -14100,7 +14100,7 @@
         <v>44684</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -14162,7 +14162,7 @@
         <v>44684</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -14224,7 +14224,7 @@
         <v>45266.83394675926</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14281,7 +14281,7 @@
         <v>45547.57539351852</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14338,7 +14338,7 @@
         <v>45770.51020833333</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14395,7 +14395,7 @@
         <v>44734.51694444445</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14452,7 +14452,7 @@
         <v>45519</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14509,7 +14509,7 @@
         <v>45803.6384375</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14566,7 +14566,7 @@
         <v>44875</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14623,7 +14623,7 @@
         <v>45803.63481481482</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14680,7 +14680,7 @@
         <v>45705</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14737,7 +14737,7 @@
         <v>44522</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14794,7 +14794,7 @@
         <v>44264</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14856,7 +14856,7 @@
         <v>45715.47774305556</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14913,7 +14913,7 @@
         <v>44477</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14975,7 +14975,7 @@
         <v>45111</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -15032,7 +15032,7 @@
         <v>44862</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -15089,7 +15089,7 @@
         <v>45884.32216435186</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -15146,7 +15146,7 @@
         <v>45884</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -15208,7 +15208,7 @@
         <v>45884.31611111111</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15265,7 +15265,7 @@
         <v>45805.35634259259</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15322,7 +15322,7 @@
         <v>45630</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15379,7 +15379,7 @@
         <v>45804.62568287037</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15436,7 +15436,7 @@
         <v>45805.35449074074</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15493,7 +15493,7 @@
         <v>44913</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15550,7 +15550,7 @@
         <v>45804.62293981481</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15607,7 +15607,7 @@
         <v>45293</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15664,7 +15664,7 @@
         <v>45390.54846064815</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15721,7 +15721,7 @@
         <v>45708</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15778,7 +15778,7 @@
         <v>44984.56869212963</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15835,7 +15835,7 @@
         <v>45628.46144675926</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15892,7 +15892,7 @@
         <v>45680.50231481482</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15949,7 +15949,7 @@
         <v>45889</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -16011,7 +16011,7 @@
         <v>45519</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -16068,7 +16068,7 @@
         <v>45439.5318287037</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -16125,7 +16125,7 @@
         <v>45596</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -16182,7 +16182,7 @@
         <v>45398.54893518519</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16239,7 +16239,7 @@
         <v>45519.42024305555</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16296,7 +16296,7 @@
         <v>45810.65658564815</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16353,7 +16353,7 @@
         <v>45810.60292824074</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16410,7 +16410,7 @@
         <v>45810.66966435185</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16467,7 +16467,7 @@
         <v>45089</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16524,7 +16524,7 @@
         <v>45891.6290162037</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16581,7 +16581,7 @@
         <v>45891.55961805556</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16638,7 +16638,7 @@
         <v>45547.32439814815</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16695,7 +16695,7 @@
         <v>44574</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16752,7 +16752,7 @@
         <v>44984</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16809,7 +16809,7 @@
         <v>45256.91207175926</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16866,7 +16866,7 @@
         <v>45673</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16923,7 +16923,7 @@
         <v>45321</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16980,7 +16980,7 @@
         <v>45818</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -17037,7 +17037,7 @@
         <v>45938.65021990741</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -17094,7 +17094,7 @@
         <v>45898.58221064815</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -17151,7 +17151,7 @@
         <v>45898</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17213,7 +17213,7 @@
         <v>44238</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17270,7 +17270,7 @@
         <v>45898.6009375</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17327,7 +17327,7 @@
         <v>45818</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17389,7 +17389,7 @@
         <v>45818.59925925926</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17446,7 +17446,7 @@
         <v>44886</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17503,7 +17503,7 @@
         <v>45818.59078703704</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17560,7 +17560,7 @@
         <v>45279</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17617,7 +17617,7 @@
         <v>45687</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17679,7 +17679,7 @@
         <v>45317</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17736,7 +17736,7 @@
         <v>45820</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17793,7 +17793,7 @@
         <v>44917</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17850,7 +17850,7 @@
         <v>45793</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17912,7 +17912,7 @@
         <v>45453</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17974,7 +17974,7 @@
         <v>45058</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -18036,7 +18036,7 @@
         <v>45453</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -18093,7 +18093,7 @@
         <v>45825.58105324074</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -18150,7 +18150,7 @@
         <v>45817.38511574074</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18207,7 +18207,7 @@
         <v>45825</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18269,7 +18269,7 @@
         <v>45825.59010416667</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18326,7 +18326,7 @@
         <v>45720.3462037037</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18383,7 +18383,7 @@
         <v>44431</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18440,7 +18440,7 @@
         <v>45723.5122337963</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18502,7 +18502,7 @@
         <v>44242</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18559,7 +18559,7 @@
         <v>45825.49863425926</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18616,7 +18616,7 @@
         <v>44984</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18673,7 +18673,7 @@
         <v>45827.64317129629</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18735,7 +18735,7 @@
         <v>45662.6995949074</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18792,7 +18792,7 @@
         <v>45826.48962962963</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18849,7 +18849,7 @@
         <v>45827.60844907408</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18911,7 +18911,7 @@
         <v>45912.64322916666</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18968,7 +18968,7 @@
         <v>45502</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -19025,7 +19025,7 @@
         <v>45006.6362962963</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -19082,7 +19082,7 @@
         <v>45294.65653935185</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -19139,7 +19139,7 @@
         <v>45106.63622685185</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19196,7 +19196,7 @@
         <v>45092</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19253,7 +19253,7 @@
         <v>45092</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19310,7 +19310,7 @@
         <v>45567</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19367,7 +19367,7 @@
         <v>45737.62077546296</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19424,7 +19424,7 @@
         <v>44914</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19481,7 +19481,7 @@
         <v>45832</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19538,7 +19538,7 @@
         <v>45218</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19595,7 +19595,7 @@
         <v>45922.44664351852</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19652,7 +19652,7 @@
         <v>45922.40297453704</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19709,7 +19709,7 @@
         <v>45922.47185185185</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19766,7 +19766,7 @@
         <v>44781.48400462963</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19823,7 +19823,7 @@
         <v>45764</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19885,7 +19885,7 @@
         <v>45764</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19947,7 +19947,7 @@
         <v>45925</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -20004,7 +20004,7 @@
         <v>44984.57246527778</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -20061,7 +20061,7 @@
         <v>44984</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -20123,7 +20123,7 @@
         <v>45832.57018518518</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -20180,7 +20180,7 @@
         <v>45833.41546296296</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20242,7 +20242,7 @@
         <v>44623.45859953704</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20299,7 +20299,7 @@
         <v>45925</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20356,7 +20356,7 @@
         <v>45832</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20413,7 +20413,7 @@
         <v>44601</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20470,7 +20470,7 @@
         <v>45929</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20527,7 +20527,7 @@
         <v>45926.37047453703</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20589,7 +20589,7 @@
         <v>45926.33668981482</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20646,7 +20646,7 @@
         <v>45834.54577546296</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20703,7 +20703,7 @@
         <v>44934.47055555556</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20760,7 +20760,7 @@
         <v>45723.45540509259</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20822,7 +20822,7 @@
         <v>45834.56706018518</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20879,7 +20879,7 @@
         <v>45930.70885416667</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20941,7 +20941,7 @@
         <v>45302.52365740741</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20998,7 +20998,7 @@
         <v>45339.74579861111</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -21055,7 +21055,7 @@
         <v>45331.44074074074</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -21112,7 +21112,7 @@
         <v>45331</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21169,7 +21169,7 @@
         <v>45930.61623842592</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21231,7 +21231,7 @@
         <v>45317</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21288,7 +21288,7 @@
         <v>45317</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21345,7 +21345,7 @@
         <v>45617</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21402,7 +21402,7 @@
         <v>45838</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21459,7 +21459,7 @@
         <v>44614.54268518519</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21516,7 +21516,7 @@
         <v>45932.42315972222</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21578,7 +21578,7 @@
         <v>45932.47104166666</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21640,7 +21640,7 @@
         <v>45838.37053240741</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21697,7 +21697,7 @@
         <v>45838</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21754,7 +21754,7 @@
         <v>45838.53759259259</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21811,7 +21811,7 @@
         <v>45519.44510416667</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21868,7 +21868,7 @@
         <v>45519</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21925,7 +21925,7 @@
         <v>45930.87245370371</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21982,7 +21982,7 @@
         <v>45930.86828703704</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -22039,7 +22039,7 @@
         <v>45586</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -22101,7 +22101,7 @@
         <v>44701</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -22163,7 +22163,7 @@
         <v>45932.38228009259</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22225,7 +22225,7 @@
         <v>45936.60976851852</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22282,7 +22282,7 @@
         <v>45840</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22339,7 +22339,7 @@
         <v>44984.43454861111</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22396,7 +22396,7 @@
         <v>45119</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22458,7 +22458,7 @@
         <v>45132.77611111111</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22515,7 +22515,7 @@
         <v>45342.88319444445</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22572,7 +22572,7 @@
         <v>45342.88614583333</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22629,7 +22629,7 @@
         <v>44364</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22691,7 +22691,7 @@
         <v>45607</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22753,7 +22753,7 @@
         <v>45943.66027777778</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22810,7 +22810,7 @@
         <v>45943.46789351852</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22867,7 +22867,7 @@
         <v>45845</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22924,7 +22924,7 @@
         <v>45674</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22981,7 +22981,7 @@
         <v>45944.34373842592</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -23038,7 +23038,7 @@
         <v>45847.64015046296</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -23095,7 +23095,7 @@
         <v>45825</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -23157,7 +23157,7 @@
         <v>45390</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23214,7 +23214,7 @@
         <v>45847.574375</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23271,7 +23271,7 @@
         <v>45945</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23333,7 +23333,7 @@
         <v>44533</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23390,7 +23390,7 @@
         <v>45946.49408564815</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23447,7 +23447,7 @@
         <v>45845</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23504,7 +23504,7 @@
         <v>45098</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23561,7 +23561,7 @@
         <v>45946.7803125</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23618,7 +23618,7 @@
         <v>45849.47375</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23675,7 +23675,7 @@
         <v>45947.61815972222</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23737,7 +23737,7 @@
         <v>44754</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23799,7 +23799,7 @@
         <v>45852</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23861,7 +23861,7 @@
         <v>45282</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23918,7 +23918,7 @@
         <v>45852</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23975,7 +23975,7 @@
         <v>45854.40615740741</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -24032,7 +24032,7 @@
         <v>45853.7616087963</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -24089,7 +24089,7 @@
         <v>44697</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -24151,7 +24151,7 @@
         <v>45950.42271990741</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -24208,7 +24208,7 @@
         <v>44900.66995370371</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24265,7 +24265,7 @@
         <v>45951.52226851852</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24322,7 +24322,7 @@
         <v>44701.56520833333</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24379,7 +24379,7 @@
         <v>45952.68802083333</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24436,7 +24436,7 @@
         <v>45952.69247685185</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24493,7 +24493,7 @@
         <v>45083</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24550,7 +24550,7 @@
         <v>45867.3707175926</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24612,7 +24612,7 @@
         <v>45006.57304398148</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24669,7 +24669,7 @@
         <v>45308.65503472222</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24726,7 +24726,7 @@
         <v>44833</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24783,7 +24783,7 @@
         <v>45817.37181712963</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24840,7 +24840,7 @@
         <v>44978.58922453703</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24897,7 +24897,7 @@
         <v>45957.50532407407</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24954,7 +24954,7 @@
         <v>45638.35512731481</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -25011,7 +25011,7 @@
         <v>44568</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -25068,7 +25068,7 @@
         <v>44405</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -25125,7 +25125,7 @@
         <v>45113</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25182,7 +25182,7 @@
         <v>44939</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -25239,7 +25239,7 @@
         <v>45321.5900462963</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25296,7 +25296,7 @@
         <v>45958.55548611111</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25353,7 +25353,7 @@
         <v>44734.72414351852</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25410,7 +25410,7 @@
         <v>45960.43714120371</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25467,7 +25467,7 @@
         <v>45876.61597222222</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25524,7 +25524,7 @@
         <v>44235</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25581,7 +25581,7 @@
         <v>45364</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25638,7 +25638,7 @@
         <v>45090.80862268519</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25700,7 +25700,7 @@
         <v>45964.59248842593</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25757,7 +25757,7 @@
         <v>45965.33782407407</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25814,7 +25814,7 @@
         <v>45317</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25871,7 +25871,7 @@
         <v>45317</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25928,7 +25928,7 @@
         <v>44480</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25985,7 +25985,7 @@
         <v>45967.62597222222</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -26042,7 +26042,7 @@
         <v>45967.628125</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -26099,7 +26099,7 @@
         <v>45058</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -26161,7 +26161,7 @@
         <v>45967.62387731481</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -26218,7 +26218,7 @@
         <v>45966.65951388889</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -26275,7 +26275,7 @@
         <v>45966.38270833333</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -26332,7 +26332,7 @@
         <v>45966.35333333333</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -26389,7 +26389,7 @@
         <v>45390.55424768518</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26446,7 +26446,7 @@
         <v>45971.65747685185</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26503,7 +26503,7 @@
         <v>45971.66030092593</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26560,7 +26560,7 @@
         <v>45883.63840277777</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26617,7 +26617,7 @@
         <v>45971.42809027778</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26674,7 +26674,7 @@
         <v>45736.3927662037</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26731,7 +26731,7 @@
         <v>45181.63969907408</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26788,7 +26788,7 @@
         <v>45882</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26850,7 +26850,7 @@
         <v>45968.6285300926</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26907,7 +26907,7 @@
         <v>45971.57480324074</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26964,7 +26964,7 @@
         <v>45971.58236111111</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -27021,7 +27021,7 @@
         <v>45972.39640046296</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -27078,7 +27078,7 @@
         <v>45972.60763888889</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -27135,7 +27135,7 @@
         <v>45972.67861111111</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -27192,7 +27192,7 @@
         <v>45777</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -27249,7 +27249,7 @@
         <v>45883.56189814815</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -27306,7 +27306,7 @@
         <v>45351</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -27363,7 +27363,7 @@
         <v>45884.30456018518</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -27420,7 +27420,7 @@
         <v>45114</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27477,7 +27477,7 @@
         <v>44694</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27539,7 +27539,7 @@
         <v>45209.58532407408</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27596,7 +27596,7 @@
         <v>45980.39798611111</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27653,7 +27653,7 @@
         <v>45197.5709375</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27710,7 +27710,7 @@
         <v>45980.43013888889</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27767,7 +27767,7 @@
         <v>46023.47248842593</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27824,7 +27824,7 @@
         <v>45980.43474537037</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27881,7 +27881,7 @@
         <v>45981.58480324074</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27938,7 +27938,7 @@
         <v>46023.47561342592</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27995,7 +27995,7 @@
         <v>45175.6459375</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -28052,7 +28052,7 @@
         <v>46023.45719907407</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -28109,7 +28109,7 @@
         <v>45982.39260416666</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -28166,7 +28166,7 @@
         <v>45982.3860300926</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -28223,7 +28223,7 @@
         <v>45737.63353009259</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -28280,7 +28280,7 @@
         <v>45740.63020833334</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -28337,7 +28337,7 @@
         <v>45983.78957175926</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -28394,7 +28394,7 @@
         <v>45590</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -28456,7 +28456,7 @@
         <v>45418</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28513,7 +28513,7 @@
         <v>45951.46150462963</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28575,7 +28575,7 @@
         <v>45856.43204861111</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28637,7 +28637,7 @@
         <v>45883.57503472222</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28699,7 +28699,7 @@
         <v>45951.61320601852</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28761,7 +28761,7 @@
         <v>45911.61762731482</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28823,7 +28823,7 @@
         <v>45852.49586805556</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28885,7 +28885,7 @@
         <v>45856.41048611111</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28947,7 +28947,7 @@
         <v>45852.58091435185</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -29009,7 +29009,7 @@
         <v>45723.55233796296</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -29071,7 +29071,7 @@
         <v>45856.40909722223</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -29133,7 +29133,7 @@
         <v>45896.47104166666</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -29195,7 +29195,7 @@
         <v>45852.48943287037</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -29257,7 +29257,7 @@
         <v>45883.5737962963</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -29319,7 +29319,7 @@
         <v>45895.63981481481</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -29381,7 +29381,7 @@
         <v>45883.47369212963</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -29443,7 +29443,7 @@
         <v>45904.50881944445</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -29505,7 +29505,7 @@
         <v>45218</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -29562,7 +29562,7 @@
         <v>45050</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29644,7 +29644,7 @@
         <v>45250</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -29701,7 +29701,7 @@
         <v>45895.61859953704</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -29763,7 +29763,7 @@
         <v>45895.68223379629</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29825,7 +29825,7 @@
         <v>45951.59496527778</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29887,7 +29887,7 @@
         <v>45904.51081018519</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29949,7 +29949,7 @@
         <v>44531</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -30006,7 +30006,7 @@
         <v>44511</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -30063,7 +30063,7 @@
         <v>45551.87931712963</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -30120,7 +30120,7 @@
         <v>45029</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -30177,7 +30177,7 @@
         <v>45992.67348379629</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -30234,7 +30234,7 @@
         <v>44314</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -30296,7 +30296,7 @@
         <v>45406.61835648148</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -30353,7 +30353,7 @@
         <v>45599</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -30415,7 +30415,7 @@
         <v>45994.62863425926</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -30472,7 +30472,7 @@
         <v>45994.38209490741</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -30529,7 +30529,7 @@
         <v>45994.64087962963</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -30586,7 +30586,7 @@
         <v>46037.67167824074</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -30643,7 +30643,7 @@
         <v>45994.54125</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -30700,7 +30700,7 @@
         <v>45993.98945601852</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -30757,7 +30757,7 @@
         <v>45999.47586805555</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -30814,7 +30814,7 @@
         <v>44362</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -30876,7 +30876,7 @@
         <v>45128.58974537037</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -30933,7 +30933,7 @@
         <v>44644.64444444444</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30990,7 +30990,7 @@
         <v>44942.44016203703</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -31047,7 +31047,7 @@
         <v>45999.50025462963</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -31104,7 +31104,7 @@
         <v>45455</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -31161,7 +31161,7 @@
         <v>45013</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -31218,7 +31218,7 @@
         <v>45266.80237268518</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -31275,7 +31275,7 @@
         <v>45662.65241898148</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -31332,7 +31332,7 @@
         <v>45092.61706018518</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -31389,7 +31389,7 @@
         <v>44659</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -31446,7 +31446,7 @@
         <v>44694</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -31503,7 +31503,7 @@
         <v>46045.61635416667</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -31560,7 +31560,7 @@
         <v>45622.6241087963</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -31617,7 +31617,7 @@
         <v>46044.56475694444</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -31674,7 +31674,7 @@
         <v>46003.42837962963</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -31731,7 +31731,7 @@
         <v>46003.43225694444</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -31788,7 +31788,7 @@
         <v>46003.43425925926</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -31845,7 +31845,7 @@
         <v>45639.64104166667</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -31902,7 +31902,7 @@
         <v>45639</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -31959,7 +31959,7 @@
         <v>45589.4975462963</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -32016,7 +32016,7 @@
         <v>45337</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -32073,7 +32073,7 @@
         <v>44272</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -32130,7 +32130,7 @@
         <v>45589.48607638889</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -32187,7 +32187,7 @@
         <v>46037</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -32244,7 +32244,7 @@
         <v>46037</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -32301,7 +32301,7 @@
         <v>46005</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -32358,7 +32358,7 @@
         <v>46048.41511574074</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -32415,7 +32415,7 @@
         <v>46006.42108796296</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -32472,7 +32472,7 @@
         <v>46007.55006944444</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -32529,7 +32529,7 @@
         <v>46037</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -32586,7 +32586,7 @@
         <v>45181.64949074074</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -32643,7 +32643,7 @@
         <v>45062</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -32700,7 +32700,7 @@
         <v>45135</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -32757,7 +32757,7 @@
         <v>46048.39959490741</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -32814,7 +32814,7 @@
         <v>45364</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -32871,7 +32871,7 @@
         <v>46052.53197916667</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -32928,7 +32928,7 @@
         <v>44434.43853009259</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -32985,7 +32985,7 @@
         <v>46051</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -33047,7 +33047,7 @@
         <v>44512</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -33109,7 +33109,7 @@
         <v>46052.62479166667</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -33166,7 +33166,7 @@
         <v>46052.3639699074</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -33223,7 +33223,7 @@
         <v>44903</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -33280,7 +33280,7 @@
         <v>44802.44090277778</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -33337,7 +33337,7 @@
         <v>44802.4437962963</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -33394,7 +33394,7 @@
         <v>44734.5185300926</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -33451,7 +33451,7 @@
         <v>46056.49887731481</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -33508,7 +33508,7 @@
         <v>44517.6352662037</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -33570,7 +33570,7 @@
         <v>44840.43806712963</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -33647,7 +33647,7 @@
         <v>46057.5896412037</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -33709,7 +33709,7 @@
         <v>44558.56614583333</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -33766,7 +33766,7 @@
         <v>45250</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -33823,7 +33823,7 @@
         <v>46056.57625</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -33880,7 +33880,7 @@
         <v>46057.61201388889</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -33942,7 +33942,7 @@
         <v>46010</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -33999,7 +33999,7 @@
         <v>46058.67237268519</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -34056,7 +34056,7 @@
         <v>45243.68689814815</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -34113,7 +34113,7 @@
         <v>44791</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -34170,7 +34170,7 @@
         <v>44945.40924768519</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -34227,7 +34227,7 @@
         <v>46058.55431712963</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -34284,7 +34284,7 @@
         <v>46058.56256944445</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -34341,7 +34341,7 @@
         <v>45624</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -34398,7 +34398,7 @@
         <v>46058.393125</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -34455,7 +34455,7 @@
         <v>45117</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -34512,7 +34512,7 @@
         <v>44974</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -34569,7 +34569,7 @@
         <v>45113</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -34631,7 +34631,7 @@
         <v>45132.79101851852</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -34688,7 +34688,7 @@
         <v>45132.80835648148</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -34745,7 +34745,7 @@
         <v>45132.82081018519</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -34802,7 +34802,7 @@
         <v>45050</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -34864,7 +34864,7 @@
         <v>45608</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -34921,7 +34921,7 @@
         <v>45411.49923611111</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -34978,7 +34978,7 @@
         <v>44944.34613425926</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -35035,7 +35035,7 @@
         <v>45566.65292824074</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -35092,7 +35092,7 @@
         <v>45030.54038194445</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -35149,7 +35149,7 @@
         <v>45006</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -35206,7 +35206,7 @@
         <v>45117</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -35263,7 +35263,7 @@
         <v>44964.74861111111</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -35320,7 +35320,7 @@
         <v>45195.52546296296</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -35377,7 +35377,7 @@
         <v>45138</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -35434,7 +35434,7 @@
         <v>45426.68497685185</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -35491,7 +35491,7 @@
         <v>45166</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -35548,7 +35548,7 @@
         <v>44435</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -35605,7 +35605,7 @@
         <v>45373.63015046297</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -35662,7 +35662,7 @@
         <v>45216.45452546296</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -35719,7 +35719,7 @@
         <v>45103</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -35781,7 +35781,7 @@
         <v>45719.61053240741</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -35838,7 +35838,7 @@
         <v>45376.36833333333</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -35895,7 +35895,7 @@
         <v>45083</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -35952,7 +35952,7 @@
         <v>44944.41800925926</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -36009,7 +36009,7 @@
         <v>45723.51342592593</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -36071,7 +36071,7 @@
         <v>45723.55184027777</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -36133,7 +36133,7 @@
         <v>45379.55935185185</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -36190,7 +36190,7 @@
         <v>44574</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -36247,7 +36247,7 @@
         <v>45243.42628472222</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -36304,7 +36304,7 @@
         <v>45117</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -36381,7 +36381,7 @@
         <v>44586.45454861111</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -36438,7 +36438,7 @@
         <v>44491</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -36495,7 +36495,7 @@
         <v>45665.37409722222</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -36552,7 +36552,7 @@
         <v>45596</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -36609,7 +36609,7 @@
         <v>45537</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -36666,7 +36666,7 @@
         <v>44911</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -36723,7 +36723,7 @@
         <v>45317</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -36780,7 +36780,7 @@
         <v>44979.66287037037</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -36837,7 +36837,7 @@
         <v>45098.59533564815</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -36894,7 +36894,7 @@
         <v>45631</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -36951,7 +36951,7 @@
         <v>44888</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -37013,7 +37013,7 @@
         <v>44978.58017361111</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -37070,7 +37070,7 @@
         <v>45294</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -37132,7 +37132,7 @@
         <v>45726.55914351852</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -37189,7 +37189,7 @@
         <v>45532</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -37246,7 +37246,7 @@
         <v>45166</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -37303,7 +37303,7 @@
         <v>44984.57643518518</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -37360,7 +37360,7 @@
         <v>44943.64856481482</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -37417,7 +37417,7 @@
         <v>44943.67108796296</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -37474,7 +37474,7 @@
         <v>44944</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -37531,7 +37531,7 @@
         <v>45252</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -37593,7 +37593,7 @@
         <v>45208</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -37650,7 +37650,7 @@
         <v>44495</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -37707,7 +37707,7 @@
         <v>44914</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -37764,7 +37764,7 @@
         <v>44974</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -37821,7 +37821,7 @@
         <v>45173.4337962963</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -37878,7 +37878,7 @@
         <v>45173.43603009259</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -37935,7 +37935,7 @@
         <v>44956</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -37997,7 +37997,7 @@
         <v>44364.3353587963</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -38054,7 +38054,7 @@
         <v>45747.46694444444</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -38111,7 +38111,7 @@
         <v>45344.48746527778</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -38168,7 +38168,7 @@
         <v>44752.8631712963</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -38225,7 +38225,7 @@
         <v>45693.66539351852</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -38282,7 +38282,7 @@
         <v>45008</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -38339,7 +38339,7 @@
         <v>45723.45451388889</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -38401,7 +38401,7 @@
         <v>45370.73208333334</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -38463,7 +38463,7 @@
         <v>44602.72481481481</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -38520,7 +38520,7 @@
         <v>45050</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -38582,7 +38582,7 @@
         <v>44911.3789699074</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -38639,7 +38639,7 @@
         <v>44978.61866898148</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -38696,7 +38696,7 @@
         <v>45743</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -38753,7 +38753,7 @@
         <v>45664.44835648148</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -38810,7 +38810,7 @@
         <v>45422.31803240741</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -38867,7 +38867,7 @@
         <v>45099.57417824074</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -38924,7 +38924,7 @@
         <v>45706</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -38986,7 +38986,7 @@
         <v>45756</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -39043,7 +39043,7 @@
         <v>45231.56061342593</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -39100,7 +39100,7 @@
         <v>45511</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -39157,7 +39157,7 @@
         <v>45058</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -39219,7 +39219,7 @@
         <v>44993</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -39276,7 +39276,7 @@
         <v>45674</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -39333,7 +39333,7 @@
         <v>45572.6234837963</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -39390,7 +39390,7 @@
         <v>45770.51476851852</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -39447,7 +39447,7 @@
         <v>44823</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -39509,7 +39509,7 @@
         <v>44753</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -39566,7 +39566,7 @@
         <v>44299</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -39623,7 +39623,7 @@
         <v>45624</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -39680,7 +39680,7 @@
         <v>45118</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -39737,7 +39737,7 @@
         <v>45582.44432870371</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -39799,7 +39799,7 @@
         <v>44951</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -39856,7 +39856,7 @@
         <v>45705.45865740741</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -39913,7 +39913,7 @@
         <v>45195</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -39970,7 +39970,7 @@
         <v>45278</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -40027,7 +40027,7 @@
         <v>44916.41059027778</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -40084,7 +40084,7 @@
         <v>44753.43458333334</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -40141,7 +40141,7 @@
         <v>44613.66513888889</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -40198,7 +40198,7 @@
         <v>45075</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -40255,7 +40255,7 @@
         <v>44873.67304398148</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -40312,7 +40312,7 @@
         <v>45175.573125</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -40369,7 +40369,7 @@
         <v>45713</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -40426,7 +40426,7 @@
         <v>44981</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -40483,7 +40483,7 @@
         <v>45117</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -40540,7 +40540,7 @@
         <v>45117</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -40597,7 +40597,7 @@
         <v>45117</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -40654,7 +40654,7 @@
         <v>44441.68001157408</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -40711,7 +40711,7 @@
         <v>45250</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -40768,7 +40768,7 @@
         <v>44925.48966435185</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -40825,7 +40825,7 @@
         <v>45727.38081018518</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -40882,7 +40882,7 @@
         <v>45736.51150462963</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -40939,7 +40939,7 @@
         <v>45686.40940972222</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -40996,7 +40996,7 @@
         <v>45103</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -41053,7 +41053,7 @@
         <v>44404</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -41110,7 +41110,7 @@
         <v>44620.42810185185</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -41167,7 +41167,7 @@
         <v>45666</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -41224,7 +41224,7 @@
         <v>45777</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -41281,7 +41281,7 @@
         <v>45747.46403935185</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -41338,7 +41338,7 @@
         <v>45776</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -41395,7 +41395,7 @@
         <v>44368</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -41457,7 +41457,7 @@
         <v>44810</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -41519,7 +41519,7 @@
         <v>45394</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -41576,7 +41576,7 @@
         <v>45539.47310185185</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -41633,7 +41633,7 @@
         <v>44644</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -41690,7 +41690,7 @@
         <v>45355</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -41747,7 +41747,7 @@
         <v>45390.31896990741</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -41804,7 +41804,7 @@
         <v>45786.43655092592</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -41866,7 +41866,7 @@
         <v>45786.4380787037</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -41928,7 +41928,7 @@
         <v>45266.82302083333</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -41985,7 +41985,7 @@
         <v>45786.60577546297</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -42047,7 +42047,7 @@
         <v>45786.60734953704</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -42109,7 +42109,7 @@
         <v>44946.81241898148</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -42166,7 +42166,7 @@
         <v>45328</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -42223,7 +42223,7 @@
         <v>45133.32862268519</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -42280,7 +42280,7 @@
         <v>45209.58063657407</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -42337,7 +42337,7 @@
         <v>45112</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -42399,7 +42399,7 @@
         <v>45797</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -42461,7 +42461,7 @@
         <v>45175.58421296296</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -42518,7 +42518,7 @@
         <v>45610.56269675926</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>

--- a/Översikt HEBY.xlsx
+++ b/Översikt HEBY.xlsx
@@ -575,7 +575,7 @@
         <v>45944.31111111111</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -681,7 +681,7 @@
         <v>45946.48280092593</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -785,7 +785,7 @@
         <v>45729.58457175926</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -880,7 +880,7 @@
         <v>45944.32907407408</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -982,7 +982,7 @@
         <v>44914</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1078,7 +1078,7 @@
         <v>45187</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1174,7 +1174,7 @@
         <v>45113</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1273,7 +1273,7 @@
         <v>45777</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1372,7 +1372,7 @@
         <v>45965.35824074074</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1471,7 +1471,7 @@
         <v>45777</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1570,7 +1570,7 @@
         <v>45618.51541666667</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1668,7 +1668,7 @@
         <v>44914</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1762,7 +1762,7 @@
         <v>45601</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1860,7 +1860,7 @@
         <v>45240</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1949,7 +1949,7 @@
         <v>45117</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2042,7 +2042,7 @@
         <v>45687.57645833334</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2130,7 +2130,7 @@
         <v>45965.37201388889</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2226,7 +2226,7 @@
         <v>45965.3762037037</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2322,7 +2322,7 @@
         <v>45485</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2415,7 +2415,7 @@
         <v>45124</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2507,7 +2507,7 @@
         <v>45123</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2603,7 +2603,7 @@
         <v>44573</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2695,7 +2695,7 @@
         <v>46003.51346064815</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2786,7 +2786,7 @@
         <v>45222</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2882,7 +2882,7 @@
         <v>45618.5216087963</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2976,7 +2976,7 @@
         <v>45313</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3066,7 +3066,7 @@
         <v>45824.63471064815</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3152,7 +3152,7 @@
         <v>45930.8557175926</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3238,7 +3238,7 @@
         <v>45170</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3333,7 +3333,7 @@
         <v>45992.55565972222</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3423,7 +3423,7 @@
         <v>45993</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3513,7 +3513,7 @@
         <v>45014</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3599,7 +3599,7 @@
         <v>45573.49663194444</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3685,7 +3685,7 @@
         <v>44847</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3774,7 +3774,7 @@
         <v>44858.36881944445</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3863,7 +3863,7 @@
         <v>44826.59002314815</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3948,7 +3948,7 @@
         <v>45093</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4037,7 +4037,7 @@
         <v>44376</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4122,7 +4122,7 @@
         <v>45799</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4216,7 +4216,7 @@
         <v>45411</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4310,7 +4310,7 @@
         <v>44609</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4395,7 +4395,7 @@
         <v>45944</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4480,7 +4480,7 @@
         <v>45946.38788194444</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4565,7 +4565,7 @@
         <v>45453</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4655,7 +4655,7 @@
         <v>45278.72756944445</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4749,7 +4749,7 @@
         <v>44308</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4838,7 +4838,7 @@
         <v>45883</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4932,7 +4932,7 @@
         <v>45622</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5022,7 +5022,7 @@
         <v>45982.42078703704</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5107,7 +5107,7 @@
         <v>45982.41844907407</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5192,7 +5192,7 @@
         <v>45985.52939814814</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5281,7 +5281,7 @@
         <v>45982.41523148148</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5366,7 +5366,7 @@
         <v>44568</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5451,7 +5451,7 @@
         <v>45617</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5545,7 +5545,7 @@
         <v>45993.99002314815</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5630,7 +5630,7 @@
         <v>45762</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5715,7 +5715,7 @@
         <v>44395</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5804,7 +5804,7 @@
         <v>46055.65600694445</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5889,7 +5889,7 @@
         <v>44501.46684027778</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5978,7 +5978,7 @@
         <v>45098</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6063,7 +6063,7 @@
         <v>45355</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6148,7 +6148,7 @@
         <v>45469</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6233,7 +6233,7 @@
         <v>45231.66261574074</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6318,7 +6318,7 @@
         <v>44370</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6412,7 +6412,7 @@
         <v>44376</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6497,7 +6497,7 @@
         <v>45777</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6587,7 +6587,7 @@
         <v>45419</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6677,7 +6677,7 @@
         <v>44756</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6739,7 +6739,7 @@
         <v>44886</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6796,7 +6796,7 @@
         <v>44278</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6853,7 +6853,7 @@
         <v>44334</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6910,7 +6910,7 @@
         <v>44309</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6967,7 +6967,7 @@
         <v>44404</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7024,7 +7024,7 @@
         <v>44404</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7081,7 +7081,7 @@
         <v>44404</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7138,7 +7138,7 @@
         <v>44620</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7195,7 +7195,7 @@
         <v>44477</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7252,7 +7252,7 @@
         <v>44454.586875</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7309,7 +7309,7 @@
         <v>44847</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7366,7 +7366,7 @@
         <v>44431</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7423,7 +7423,7 @@
         <v>44754</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7480,7 +7480,7 @@
         <v>44250.4206712963</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7537,7 +7537,7 @@
         <v>44466</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7594,7 +7594,7 @@
         <v>44615.68924768519</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7651,7 +7651,7 @@
         <v>44315</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7708,7 +7708,7 @@
         <v>44586</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7765,7 +7765,7 @@
         <v>44516</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7822,7 +7822,7 @@
         <v>44511.45233796296</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7879,7 +7879,7 @@
         <v>44285</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7936,7 +7936,7 @@
         <v>44757.5916087963</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7993,7 +7993,7 @@
         <v>44585</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -8050,7 +8050,7 @@
         <v>44508</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -8107,7 +8107,7 @@
         <v>44285</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -8164,7 +8164,7 @@
         <v>44509</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -8221,7 +8221,7 @@
         <v>44259</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -8278,7 +8278,7 @@
         <v>44445</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8335,7 +8335,7 @@
         <v>44756.58483796296</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8397,7 +8397,7 @@
         <v>44578</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8459,7 +8459,7 @@
         <v>44788.35174768518</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8516,7 +8516,7 @@
         <v>44852.64951388889</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8573,7 +8573,7 @@
         <v>44480.4409837963</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8630,7 +8630,7 @@
         <v>44508.53688657407</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8692,7 +8692,7 @@
         <v>44509</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8749,7 +8749,7 @@
         <v>44411</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8806,7 +8806,7 @@
         <v>44505</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8863,7 +8863,7 @@
         <v>44308</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8925,7 +8925,7 @@
         <v>44371</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8987,7 +8987,7 @@
         <v>44389</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -9044,7 +9044,7 @@
         <v>44390</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -9106,7 +9106,7 @@
         <v>44452.63615740741</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -9163,7 +9163,7 @@
         <v>44280</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -9220,7 +9220,7 @@
         <v>44517.59695601852</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -9282,7 +9282,7 @@
         <v>44333</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9339,7 +9339,7 @@
         <v>44360</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9396,7 +9396,7 @@
         <v>44516.55341435185</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9453,7 +9453,7 @@
         <v>44565</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9510,7 +9510,7 @@
         <v>44844</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9567,7 +9567,7 @@
         <v>44712</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9624,7 +9624,7 @@
         <v>44351.32269675926</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9681,7 +9681,7 @@
         <v>44433.62458333333</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9738,7 +9738,7 @@
         <v>44550</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9795,7 +9795,7 @@
         <v>44832.68144675926</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9852,7 +9852,7 @@
         <v>44524</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9909,7 +9909,7 @@
         <v>44509</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9966,7 +9966,7 @@
         <v>44735</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -10023,7 +10023,7 @@
         <v>44743.633125</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -10080,7 +10080,7 @@
         <v>44519</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -10142,7 +10142,7 @@
         <v>44287</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -10199,7 +10199,7 @@
         <v>44850.31813657407</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -10256,7 +10256,7 @@
         <v>44614.36751157408</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10313,7 +10313,7 @@
         <v>44491.67335648148</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10370,7 +10370,7 @@
         <v>44725.37670138889</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10427,7 +10427,7 @@
         <v>44522.3946875</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10484,7 +10484,7 @@
         <v>44364.34809027778</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10541,7 +10541,7 @@
         <v>44832</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10598,7 +10598,7 @@
         <v>44748</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10655,7 +10655,7 @@
         <v>44368</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10712,7 +10712,7 @@
         <v>44249</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10769,7 +10769,7 @@
         <v>44459</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10826,7 +10826,7 @@
         <v>44459</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10883,7 +10883,7 @@
         <v>44342</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10945,7 +10945,7 @@
         <v>44382.32331018519</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -11002,7 +11002,7 @@
         <v>44551</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -11059,7 +11059,7 @@
         <v>44349</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -11116,7 +11116,7 @@
         <v>44685</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -11173,7 +11173,7 @@
         <v>44769</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -11230,7 +11230,7 @@
         <v>44650.66174768518</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -11292,7 +11292,7 @@
         <v>44655.59482638889</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11349,7 +11349,7 @@
         <v>44722.88414351852</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11406,7 +11406,7 @@
         <v>44700.53931712963</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11463,7 +11463,7 @@
         <v>44532</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11520,7 +11520,7 @@
         <v>44573</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11577,7 +11577,7 @@
         <v>44753.43171296296</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11634,7 +11634,7 @@
         <v>44614.53547453704</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11691,7 +11691,7 @@
         <v>45673.5980787037</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11748,7 +11748,7 @@
         <v>44841.6265625</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11805,7 +11805,7 @@
         <v>44942.40657407408</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11862,7 +11862,7 @@
         <v>44609.66260416667</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11919,7 +11919,7 @@
         <v>44858.36759259259</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11976,7 +11976,7 @@
         <v>45231.863125</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -12033,7 +12033,7 @@
         <v>45645.46418981482</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -12090,7 +12090,7 @@
         <v>44552</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -12147,7 +12147,7 @@
         <v>44300</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -12204,7 +12204,7 @@
         <v>44802</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -12261,7 +12261,7 @@
         <v>45714.46084490741</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12318,7 +12318,7 @@
         <v>45133.31494212963</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12375,7 +12375,7 @@
         <v>44697.39297453704</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12432,7 +12432,7 @@
         <v>45630</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12489,7 +12489,7 @@
         <v>44732</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12546,7 +12546,7 @@
         <v>45599</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12608,7 +12608,7 @@
         <v>44849.86905092592</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12665,7 +12665,7 @@
         <v>45117</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12722,7 +12722,7 @@
         <v>45670</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12779,7 +12779,7 @@
         <v>44694</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12836,7 +12836,7 @@
         <v>45035.75166666666</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12893,7 +12893,7 @@
         <v>44865.38575231482</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12950,7 +12950,7 @@
         <v>44391</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -13007,7 +13007,7 @@
         <v>45749.80582175926</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -13064,7 +13064,7 @@
         <v>45748.62291666667</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -13121,7 +13121,7 @@
         <v>44960.48622685186</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -13178,7 +13178,7 @@
         <v>45761</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -13235,7 +13235,7 @@
         <v>45645.47047453704</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13292,7 +13292,7 @@
         <v>44844.57619212963</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13349,7 +13349,7 @@
         <v>45539.50813657408</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13406,7 +13406,7 @@
         <v>44914.41196759259</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13463,7 +13463,7 @@
         <v>44538</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13520,7 +13520,7 @@
         <v>45539.51753472222</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13577,7 +13577,7 @@
         <v>44917.65171296296</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13634,7 +13634,7 @@
         <v>44543</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13691,7 +13691,7 @@
         <v>45688</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13748,7 +13748,7 @@
         <v>45215</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13805,7 +13805,7 @@
         <v>44788</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13862,7 +13862,7 @@
         <v>44810</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13924,7 +13924,7 @@
         <v>45705</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13986,7 +13986,7 @@
         <v>45699.54886574074</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -14043,7 +14043,7 @@
         <v>45331</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -14100,7 +14100,7 @@
         <v>44684</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -14162,7 +14162,7 @@
         <v>44684</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -14224,7 +14224,7 @@
         <v>45266.83394675926</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14281,7 +14281,7 @@
         <v>45547.57539351852</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14338,7 +14338,7 @@
         <v>45770.51020833333</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14395,7 +14395,7 @@
         <v>44734.51694444445</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14452,7 +14452,7 @@
         <v>45519</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14509,7 +14509,7 @@
         <v>45803.6384375</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14566,7 +14566,7 @@
         <v>44875</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14623,7 +14623,7 @@
         <v>45803.63481481482</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14680,7 +14680,7 @@
         <v>45705</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14737,7 +14737,7 @@
         <v>44522</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14794,7 +14794,7 @@
         <v>44264</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14856,7 +14856,7 @@
         <v>45715.47774305556</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14913,7 +14913,7 @@
         <v>44477</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14975,7 +14975,7 @@
         <v>45111</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -15032,7 +15032,7 @@
         <v>44862</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -15089,7 +15089,7 @@
         <v>45884.32216435186</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -15146,7 +15146,7 @@
         <v>45884</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -15208,7 +15208,7 @@
         <v>45884.31611111111</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15265,7 +15265,7 @@
         <v>45805.35634259259</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15322,7 +15322,7 @@
         <v>45630</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15379,7 +15379,7 @@
         <v>45804.62568287037</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15436,7 +15436,7 @@
         <v>45805.35449074074</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15493,7 +15493,7 @@
         <v>44913</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15550,7 +15550,7 @@
         <v>45804.62293981481</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15607,7 +15607,7 @@
         <v>45293</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15664,7 +15664,7 @@
         <v>45390.54846064815</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15721,7 +15721,7 @@
         <v>45708</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15778,7 +15778,7 @@
         <v>44984.56869212963</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15835,7 +15835,7 @@
         <v>45628.46144675926</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15892,7 +15892,7 @@
         <v>45680.50231481482</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15949,7 +15949,7 @@
         <v>45889</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -16011,7 +16011,7 @@
         <v>45519</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -16068,7 +16068,7 @@
         <v>45439.5318287037</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -16125,7 +16125,7 @@
         <v>45596</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -16182,7 +16182,7 @@
         <v>45398.54893518519</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16239,7 +16239,7 @@
         <v>45519.42024305555</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16296,7 +16296,7 @@
         <v>45810.65658564815</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16353,7 +16353,7 @@
         <v>45810.60292824074</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16410,7 +16410,7 @@
         <v>45810.66966435185</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16467,7 +16467,7 @@
         <v>45089</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16524,7 +16524,7 @@
         <v>45891.6290162037</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16581,7 +16581,7 @@
         <v>45891.55961805556</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16638,7 +16638,7 @@
         <v>45547.32439814815</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16695,7 +16695,7 @@
         <v>44574</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16752,7 +16752,7 @@
         <v>44984</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16809,7 +16809,7 @@
         <v>45256.91207175926</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16866,7 +16866,7 @@
         <v>45673</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16923,7 +16923,7 @@
         <v>45321</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16980,7 +16980,7 @@
         <v>45818</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -17037,7 +17037,7 @@
         <v>45938.65021990741</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -17094,7 +17094,7 @@
         <v>45898.58221064815</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -17151,7 +17151,7 @@
         <v>45898</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17213,7 +17213,7 @@
         <v>44238</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17270,7 +17270,7 @@
         <v>45898.6009375</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17327,7 +17327,7 @@
         <v>45818</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17389,7 +17389,7 @@
         <v>45818.59925925926</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17446,7 +17446,7 @@
         <v>44886</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17503,7 +17503,7 @@
         <v>45818.59078703704</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17560,7 +17560,7 @@
         <v>45279</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17617,7 +17617,7 @@
         <v>45687</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17679,7 +17679,7 @@
         <v>45317</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17736,7 +17736,7 @@
         <v>45820</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17793,7 +17793,7 @@
         <v>44917</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17850,7 +17850,7 @@
         <v>45793</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17912,7 +17912,7 @@
         <v>45453</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17974,7 +17974,7 @@
         <v>45058</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -18036,7 +18036,7 @@
         <v>45453</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -18093,7 +18093,7 @@
         <v>45825.58105324074</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -18150,7 +18150,7 @@
         <v>45817.38511574074</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18207,7 +18207,7 @@
         <v>45825</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18269,7 +18269,7 @@
         <v>45825.59010416667</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18326,7 +18326,7 @@
         <v>45720.3462037037</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18383,7 +18383,7 @@
         <v>44431</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18440,7 +18440,7 @@
         <v>45723.5122337963</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18502,7 +18502,7 @@
         <v>44242</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18559,7 +18559,7 @@
         <v>45825.49863425926</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18616,7 +18616,7 @@
         <v>44984</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18673,7 +18673,7 @@
         <v>45827.64317129629</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18735,7 +18735,7 @@
         <v>45662.6995949074</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18792,7 +18792,7 @@
         <v>45826.48962962963</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18849,7 +18849,7 @@
         <v>45827.60844907408</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18911,7 +18911,7 @@
         <v>45912.64322916666</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18968,7 +18968,7 @@
         <v>45502</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -19025,7 +19025,7 @@
         <v>45006.6362962963</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -19082,7 +19082,7 @@
         <v>45294.65653935185</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -19139,7 +19139,7 @@
         <v>45106.63622685185</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19196,7 +19196,7 @@
         <v>45092</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19253,7 +19253,7 @@
         <v>45092</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19310,7 +19310,7 @@
         <v>45567</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19367,7 +19367,7 @@
         <v>45737.62077546296</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19424,7 +19424,7 @@
         <v>44914</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19481,7 +19481,7 @@
         <v>45832</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19538,7 +19538,7 @@
         <v>45218</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19595,7 +19595,7 @@
         <v>45922.44664351852</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19652,7 +19652,7 @@
         <v>45922.40297453704</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19709,7 +19709,7 @@
         <v>45922.47185185185</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19766,7 +19766,7 @@
         <v>44781.48400462963</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19823,7 +19823,7 @@
         <v>45764</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19885,7 +19885,7 @@
         <v>45764</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19947,7 +19947,7 @@
         <v>45925</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -20004,7 +20004,7 @@
         <v>44984.57246527778</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -20061,7 +20061,7 @@
         <v>44984</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -20123,7 +20123,7 @@
         <v>45832.57018518518</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -20180,7 +20180,7 @@
         <v>45833.41546296296</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20242,7 +20242,7 @@
         <v>44623.45859953704</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20299,7 +20299,7 @@
         <v>45925</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20356,7 +20356,7 @@
         <v>45832</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20413,7 +20413,7 @@
         <v>44601</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20470,7 +20470,7 @@
         <v>45929</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20527,7 +20527,7 @@
         <v>45926.37047453703</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20589,7 +20589,7 @@
         <v>45926.33668981482</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20646,7 +20646,7 @@
         <v>45834.54577546296</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20703,7 +20703,7 @@
         <v>44934.47055555556</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20760,7 +20760,7 @@
         <v>45723.45540509259</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20822,7 +20822,7 @@
         <v>45834.56706018518</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20879,7 +20879,7 @@
         <v>45930.70885416667</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20941,7 +20941,7 @@
         <v>45302.52365740741</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20998,7 +20998,7 @@
         <v>45339.74579861111</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -21055,7 +21055,7 @@
         <v>45331.44074074074</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -21112,7 +21112,7 @@
         <v>45331</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21169,7 +21169,7 @@
         <v>45930.61623842592</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21231,7 +21231,7 @@
         <v>45317</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21288,7 +21288,7 @@
         <v>45317</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21345,7 +21345,7 @@
         <v>45617</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21402,7 +21402,7 @@
         <v>45838</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21459,7 +21459,7 @@
         <v>44614.54268518519</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21516,7 +21516,7 @@
         <v>45932.42315972222</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21578,7 +21578,7 @@
         <v>45932.47104166666</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21640,7 +21640,7 @@
         <v>45838.37053240741</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21697,7 +21697,7 @@
         <v>45838</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21754,7 +21754,7 @@
         <v>45838.53759259259</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21811,7 +21811,7 @@
         <v>45519.44510416667</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21868,7 +21868,7 @@
         <v>45519</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21925,7 +21925,7 @@
         <v>45930.87245370371</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21982,7 +21982,7 @@
         <v>45930.86828703704</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -22039,7 +22039,7 @@
         <v>45586</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -22101,7 +22101,7 @@
         <v>44701</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -22163,7 +22163,7 @@
         <v>45932.38228009259</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22225,7 +22225,7 @@
         <v>45936.60976851852</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22282,7 +22282,7 @@
         <v>45840</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22339,7 +22339,7 @@
         <v>44984.43454861111</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22396,7 +22396,7 @@
         <v>45119</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22458,7 +22458,7 @@
         <v>45132.77611111111</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22515,7 +22515,7 @@
         <v>45342.88319444445</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22572,7 +22572,7 @@
         <v>45342.88614583333</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22629,7 +22629,7 @@
         <v>44364</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22691,7 +22691,7 @@
         <v>45607</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22753,7 +22753,7 @@
         <v>45943.66027777778</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22810,7 +22810,7 @@
         <v>45943.46789351852</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22867,7 +22867,7 @@
         <v>45845</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22924,7 +22924,7 @@
         <v>45674</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22981,7 +22981,7 @@
         <v>45944.34373842592</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -23038,7 +23038,7 @@
         <v>45847.64015046296</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -23095,7 +23095,7 @@
         <v>45825</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -23157,7 +23157,7 @@
         <v>45390</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23214,7 +23214,7 @@
         <v>45847.574375</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23271,7 +23271,7 @@
         <v>45945</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23333,7 +23333,7 @@
         <v>44533</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23390,7 +23390,7 @@
         <v>45946.49408564815</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23447,7 +23447,7 @@
         <v>45845</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23504,7 +23504,7 @@
         <v>45098</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23561,7 +23561,7 @@
         <v>45946.7803125</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23618,7 +23618,7 @@
         <v>45849.47375</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23675,7 +23675,7 @@
         <v>45947.61815972222</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23737,7 +23737,7 @@
         <v>44754</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23799,7 +23799,7 @@
         <v>45852</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23861,7 +23861,7 @@
         <v>45282</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23918,7 +23918,7 @@
         <v>45852</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23975,7 +23975,7 @@
         <v>45854.40615740741</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -24032,7 +24032,7 @@
         <v>45853.7616087963</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -24089,7 +24089,7 @@
         <v>44697</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -24151,7 +24151,7 @@
         <v>45950.42271990741</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -24208,7 +24208,7 @@
         <v>44900.66995370371</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24265,7 +24265,7 @@
         <v>45951.52226851852</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24322,7 +24322,7 @@
         <v>44701.56520833333</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24379,7 +24379,7 @@
         <v>45952.68802083333</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24436,7 +24436,7 @@
         <v>45952.69247685185</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24493,7 +24493,7 @@
         <v>45083</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24550,7 +24550,7 @@
         <v>45867.3707175926</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24612,7 +24612,7 @@
         <v>45006.57304398148</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24669,7 +24669,7 @@
         <v>45308.65503472222</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24726,7 +24726,7 @@
         <v>44833</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24783,7 +24783,7 @@
         <v>45817.37181712963</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24840,7 +24840,7 @@
         <v>44978.58922453703</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24897,7 +24897,7 @@
         <v>45957.50532407407</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24954,7 +24954,7 @@
         <v>45638.35512731481</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -25011,7 +25011,7 @@
         <v>44568</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -25068,7 +25068,7 @@
         <v>44405</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -25125,7 +25125,7 @@
         <v>45113</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25182,7 +25182,7 @@
         <v>44939</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -25239,7 +25239,7 @@
         <v>45321.5900462963</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25296,7 +25296,7 @@
         <v>45958.55548611111</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25353,7 +25353,7 @@
         <v>44734.72414351852</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25410,7 +25410,7 @@
         <v>45960.43714120371</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25467,7 +25467,7 @@
         <v>45876.61597222222</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25524,7 +25524,7 @@
         <v>44235</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25581,7 +25581,7 @@
         <v>45364</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25638,7 +25638,7 @@
         <v>45090.80862268519</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25700,7 +25700,7 @@
         <v>45964.59248842593</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25757,7 +25757,7 @@
         <v>45965.33782407407</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25814,7 +25814,7 @@
         <v>45317</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25871,7 +25871,7 @@
         <v>45317</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25928,7 +25928,7 @@
         <v>44480</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25985,7 +25985,7 @@
         <v>45967.62597222222</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -26042,7 +26042,7 @@
         <v>45967.628125</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -26099,7 +26099,7 @@
         <v>45058</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -26161,7 +26161,7 @@
         <v>45967.62387731481</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -26218,7 +26218,7 @@
         <v>45966.65951388889</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -26275,7 +26275,7 @@
         <v>45966.38270833333</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -26332,7 +26332,7 @@
         <v>45966.35333333333</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -26389,7 +26389,7 @@
         <v>45390.55424768518</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26446,7 +26446,7 @@
         <v>45971.65747685185</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26503,7 +26503,7 @@
         <v>45971.66030092593</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26560,7 +26560,7 @@
         <v>45883.63840277777</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26617,7 +26617,7 @@
         <v>45971.42809027778</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26674,7 +26674,7 @@
         <v>45736.3927662037</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26731,7 +26731,7 @@
         <v>45181.63969907408</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26788,7 +26788,7 @@
         <v>45882</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26850,7 +26850,7 @@
         <v>45968.6285300926</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26907,7 +26907,7 @@
         <v>45971.57480324074</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26964,7 +26964,7 @@
         <v>45971.58236111111</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -27021,7 +27021,7 @@
         <v>45972.39640046296</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -27078,7 +27078,7 @@
         <v>45972.60763888889</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -27135,7 +27135,7 @@
         <v>45972.67861111111</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -27192,7 +27192,7 @@
         <v>45777</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -27249,7 +27249,7 @@
         <v>45883.56189814815</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -27306,7 +27306,7 @@
         <v>45351</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -27363,7 +27363,7 @@
         <v>45884.30456018518</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -27420,7 +27420,7 @@
         <v>45114</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27477,7 +27477,7 @@
         <v>44694</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27539,7 +27539,7 @@
         <v>45209.58532407408</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27596,7 +27596,7 @@
         <v>45980.39798611111</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27653,7 +27653,7 @@
         <v>45197.5709375</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27710,7 +27710,7 @@
         <v>45980.43013888889</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27767,7 +27767,7 @@
         <v>46023.47248842593</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27824,7 +27824,7 @@
         <v>45980.43474537037</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27881,7 +27881,7 @@
         <v>45981.58480324074</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27938,7 +27938,7 @@
         <v>46023.47561342592</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27995,7 +27995,7 @@
         <v>45175.6459375</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -28052,7 +28052,7 @@
         <v>46023.45719907407</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -28109,7 +28109,7 @@
         <v>45982.39260416666</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -28166,7 +28166,7 @@
         <v>45982.3860300926</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -28223,7 +28223,7 @@
         <v>45737.63353009259</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -28280,7 +28280,7 @@
         <v>45740.63020833334</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -28337,7 +28337,7 @@
         <v>45983.78957175926</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -28394,7 +28394,7 @@
         <v>45590</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -28456,7 +28456,7 @@
         <v>45418</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28513,7 +28513,7 @@
         <v>45951.46150462963</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28575,7 +28575,7 @@
         <v>45856.43204861111</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28637,7 +28637,7 @@
         <v>45883.57503472222</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28699,7 +28699,7 @@
         <v>45951.61320601852</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28761,7 +28761,7 @@
         <v>45911.61762731482</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28823,7 +28823,7 @@
         <v>45852.49586805556</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28885,7 +28885,7 @@
         <v>45856.41048611111</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28947,7 +28947,7 @@
         <v>45852.58091435185</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -29009,7 +29009,7 @@
         <v>45723.55233796296</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -29071,7 +29071,7 @@
         <v>45856.40909722223</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -29133,7 +29133,7 @@
         <v>45896.47104166666</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -29195,7 +29195,7 @@
         <v>45852.48943287037</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -29257,7 +29257,7 @@
         <v>45883.5737962963</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -29319,7 +29319,7 @@
         <v>45895.63981481481</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -29381,7 +29381,7 @@
         <v>45883.47369212963</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -29443,7 +29443,7 @@
         <v>45904.50881944445</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -29505,7 +29505,7 @@
         <v>45218</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -29562,7 +29562,7 @@
         <v>45050</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29644,7 +29644,7 @@
         <v>45250</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -29701,7 +29701,7 @@
         <v>45895.61859953704</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -29763,7 +29763,7 @@
         <v>45895.68223379629</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29825,7 +29825,7 @@
         <v>45951.59496527778</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29887,7 +29887,7 @@
         <v>45904.51081018519</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29949,7 +29949,7 @@
         <v>44531</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -30006,7 +30006,7 @@
         <v>44511</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -30063,7 +30063,7 @@
         <v>45551.87931712963</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -30120,7 +30120,7 @@
         <v>45029</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -30177,7 +30177,7 @@
         <v>45992.67348379629</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -30234,7 +30234,7 @@
         <v>44314</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -30296,7 +30296,7 @@
         <v>45406.61835648148</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -30353,7 +30353,7 @@
         <v>45599</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -30415,7 +30415,7 @@
         <v>45994.62863425926</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -30472,7 +30472,7 @@
         <v>45994.38209490741</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -30529,7 +30529,7 @@
         <v>45994.64087962963</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -30586,7 +30586,7 @@
         <v>46037.67167824074</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -30643,7 +30643,7 @@
         <v>45994.54125</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -30700,7 +30700,7 @@
         <v>45993.98945601852</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -30757,7 +30757,7 @@
         <v>45999.47586805555</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -30814,7 +30814,7 @@
         <v>44362</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -30876,7 +30876,7 @@
         <v>45128.58974537037</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -30933,7 +30933,7 @@
         <v>44644.64444444444</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30990,7 +30990,7 @@
         <v>44942.44016203703</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -31047,7 +31047,7 @@
         <v>45999.50025462963</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -31104,7 +31104,7 @@
         <v>45455</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -31161,7 +31161,7 @@
         <v>45013</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -31218,7 +31218,7 @@
         <v>45266.80237268518</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -31275,7 +31275,7 @@
         <v>45662.65241898148</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -31332,7 +31332,7 @@
         <v>45092.61706018518</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -31389,7 +31389,7 @@
         <v>44659</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -31446,7 +31446,7 @@
         <v>44694</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -31503,7 +31503,7 @@
         <v>46045.61635416667</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -31560,7 +31560,7 @@
         <v>45622.6241087963</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -31617,7 +31617,7 @@
         <v>46044.56475694444</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -31674,7 +31674,7 @@
         <v>46003.42837962963</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -31731,7 +31731,7 @@
         <v>46003.43225694444</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -31788,7 +31788,7 @@
         <v>46003.43425925926</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -31845,7 +31845,7 @@
         <v>45639.64104166667</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -31902,7 +31902,7 @@
         <v>45639</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -31959,7 +31959,7 @@
         <v>45589.4975462963</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -32016,7 +32016,7 @@
         <v>45337</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -32073,7 +32073,7 @@
         <v>44272</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -32130,7 +32130,7 @@
         <v>45589.48607638889</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -32187,7 +32187,7 @@
         <v>46037</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -32244,7 +32244,7 @@
         <v>46037</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -32301,7 +32301,7 @@
         <v>46005</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -32358,7 +32358,7 @@
         <v>46048.41511574074</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -32415,7 +32415,7 @@
         <v>46006.42108796296</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -32472,7 +32472,7 @@
         <v>46007.55006944444</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -32529,7 +32529,7 @@
         <v>46037</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -32586,7 +32586,7 @@
         <v>45181.64949074074</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -32643,7 +32643,7 @@
         <v>45062</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -32700,7 +32700,7 @@
         <v>45135</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -32757,7 +32757,7 @@
         <v>46048.39959490741</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -32814,7 +32814,7 @@
         <v>45364</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -32871,7 +32871,7 @@
         <v>46052.53197916667</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -32928,7 +32928,7 @@
         <v>44434.43853009259</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -32985,7 +32985,7 @@
         <v>46051</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -33047,7 +33047,7 @@
         <v>44512</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -33109,7 +33109,7 @@
         <v>46052.62479166667</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -33166,7 +33166,7 @@
         <v>46052.3639699074</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -33223,7 +33223,7 @@
         <v>44903</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -33280,7 +33280,7 @@
         <v>44802.44090277778</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -33337,7 +33337,7 @@
         <v>44802.4437962963</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -33394,7 +33394,7 @@
         <v>44734.5185300926</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -33451,7 +33451,7 @@
         <v>46056.49887731481</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -33508,7 +33508,7 @@
         <v>44517.6352662037</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -33570,7 +33570,7 @@
         <v>44840.43806712963</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -33647,7 +33647,7 @@
         <v>46057.5896412037</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -33709,7 +33709,7 @@
         <v>44558.56614583333</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -33766,7 +33766,7 @@
         <v>45250</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -33823,7 +33823,7 @@
         <v>46056.57625</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -33880,7 +33880,7 @@
         <v>46057.61201388889</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -33942,7 +33942,7 @@
         <v>46010</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -33999,7 +33999,7 @@
         <v>46058.67237268519</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -34056,7 +34056,7 @@
         <v>45243.68689814815</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -34113,7 +34113,7 @@
         <v>44791</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -34170,7 +34170,7 @@
         <v>44945.40924768519</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -34227,7 +34227,7 @@
         <v>46058.55431712963</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -34284,7 +34284,7 @@
         <v>46058.56256944445</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -34341,7 +34341,7 @@
         <v>45624</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -34398,7 +34398,7 @@
         <v>46058.393125</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -34455,7 +34455,7 @@
         <v>45117</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -34512,7 +34512,7 @@
         <v>44974</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -34569,7 +34569,7 @@
         <v>45113</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -34631,7 +34631,7 @@
         <v>45132.79101851852</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -34688,7 +34688,7 @@
         <v>45132.80835648148</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -34745,7 +34745,7 @@
         <v>45132.82081018519</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -34802,7 +34802,7 @@
         <v>45050</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -34864,7 +34864,7 @@
         <v>45608</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -34921,7 +34921,7 @@
         <v>45411.49923611111</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -34978,7 +34978,7 @@
         <v>44944.34613425926</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -35035,7 +35035,7 @@
         <v>45566.65292824074</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -35092,7 +35092,7 @@
         <v>45030.54038194445</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -35149,7 +35149,7 @@
         <v>45006</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -35206,7 +35206,7 @@
         <v>45117</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -35263,7 +35263,7 @@
         <v>44964.74861111111</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -35320,7 +35320,7 @@
         <v>45195.52546296296</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -35377,7 +35377,7 @@
         <v>45138</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -35434,7 +35434,7 @@
         <v>45426.68497685185</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -35491,7 +35491,7 @@
         <v>45166</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -35548,7 +35548,7 @@
         <v>44435</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -35605,7 +35605,7 @@
         <v>45373.63015046297</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -35662,7 +35662,7 @@
         <v>45216.45452546296</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -35719,7 +35719,7 @@
         <v>45103</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -35781,7 +35781,7 @@
         <v>45719.61053240741</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -35838,7 +35838,7 @@
         <v>45376.36833333333</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -35895,7 +35895,7 @@
         <v>45083</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -35952,7 +35952,7 @@
         <v>44944.41800925926</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -36009,7 +36009,7 @@
         <v>45723.51342592593</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -36071,7 +36071,7 @@
         <v>45723.55184027777</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -36133,7 +36133,7 @@
         <v>45379.55935185185</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -36190,7 +36190,7 @@
         <v>44574</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -36247,7 +36247,7 @@
         <v>45243.42628472222</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -36304,7 +36304,7 @@
         <v>45117</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -36381,7 +36381,7 @@
         <v>44586.45454861111</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -36438,7 +36438,7 @@
         <v>44491</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -36495,7 +36495,7 @@
         <v>45665.37409722222</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -36552,7 +36552,7 @@
         <v>45596</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -36609,7 +36609,7 @@
         <v>45537</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -36666,7 +36666,7 @@
         <v>44911</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -36723,7 +36723,7 @@
         <v>45317</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -36780,7 +36780,7 @@
         <v>44979.66287037037</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -36837,7 +36837,7 @@
         <v>45098.59533564815</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -36894,7 +36894,7 @@
         <v>45631</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -36951,7 +36951,7 @@
         <v>44888</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -37013,7 +37013,7 @@
         <v>44978.58017361111</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -37070,7 +37070,7 @@
         <v>45294</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -37132,7 +37132,7 @@
         <v>45726.55914351852</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -37189,7 +37189,7 @@
         <v>45532</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -37246,7 +37246,7 @@
         <v>45166</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -37303,7 +37303,7 @@
         <v>44984.57643518518</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -37360,7 +37360,7 @@
         <v>44943.64856481482</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -37417,7 +37417,7 @@
         <v>44943.67108796296</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -37474,7 +37474,7 @@
         <v>44944</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -37531,7 +37531,7 @@
         <v>45252</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -37593,7 +37593,7 @@
         <v>45208</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -37650,7 +37650,7 @@
         <v>44495</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -37707,7 +37707,7 @@
         <v>44914</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -37764,7 +37764,7 @@
         <v>44974</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -37821,7 +37821,7 @@
         <v>45173.4337962963</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -37878,7 +37878,7 @@
         <v>45173.43603009259</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -37935,7 +37935,7 @@
         <v>44956</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -37997,7 +37997,7 @@
         <v>44364.3353587963</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -38054,7 +38054,7 @@
         <v>45747.46694444444</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -38111,7 +38111,7 @@
         <v>45344.48746527778</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -38168,7 +38168,7 @@
         <v>44752.8631712963</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -38225,7 +38225,7 @@
         <v>45693.66539351852</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -38282,7 +38282,7 @@
         <v>45008</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -38339,7 +38339,7 @@
         <v>45723.45451388889</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -38401,7 +38401,7 @@
         <v>45370.73208333334</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -38463,7 +38463,7 @@
         <v>44602.72481481481</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -38520,7 +38520,7 @@
         <v>45050</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -38582,7 +38582,7 @@
         <v>44911.3789699074</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -38639,7 +38639,7 @@
         <v>44978.61866898148</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -38696,7 +38696,7 @@
         <v>45743</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -38753,7 +38753,7 @@
         <v>45664.44835648148</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -38810,7 +38810,7 @@
         <v>45422.31803240741</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -38867,7 +38867,7 @@
         <v>45099.57417824074</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -38924,7 +38924,7 @@
         <v>45706</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -38986,7 +38986,7 @@
         <v>45756</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -39043,7 +39043,7 @@
         <v>45231.56061342593</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -39100,7 +39100,7 @@
         <v>45511</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -39157,7 +39157,7 @@
         <v>45058</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -39219,7 +39219,7 @@
         <v>44993</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -39276,7 +39276,7 @@
         <v>45674</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -39333,7 +39333,7 @@
         <v>45572.6234837963</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -39390,7 +39390,7 @@
         <v>45770.51476851852</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -39447,7 +39447,7 @@
         <v>44823</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -39509,7 +39509,7 @@
         <v>44753</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -39566,7 +39566,7 @@
         <v>44299</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -39623,7 +39623,7 @@
         <v>45624</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -39680,7 +39680,7 @@
         <v>45118</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -39737,7 +39737,7 @@
         <v>45582.44432870371</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -39799,7 +39799,7 @@
         <v>44951</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -39856,7 +39856,7 @@
         <v>45705.45865740741</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -39913,7 +39913,7 @@
         <v>45195</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -39970,7 +39970,7 @@
         <v>45278</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -40027,7 +40027,7 @@
         <v>44916.41059027778</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -40084,7 +40084,7 @@
         <v>44753.43458333334</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -40141,7 +40141,7 @@
         <v>44613.66513888889</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -40198,7 +40198,7 @@
         <v>45075</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -40255,7 +40255,7 @@
         <v>44873.67304398148</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -40312,7 +40312,7 @@
         <v>45175.573125</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -40369,7 +40369,7 @@
         <v>45713</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -40426,7 +40426,7 @@
         <v>44981</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -40483,7 +40483,7 @@
         <v>45117</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -40540,7 +40540,7 @@
         <v>45117</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -40597,7 +40597,7 @@
         <v>45117</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -40654,7 +40654,7 @@
         <v>44441.68001157408</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -40711,7 +40711,7 @@
         <v>45250</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -40768,7 +40768,7 @@
         <v>44925.48966435185</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -40825,7 +40825,7 @@
         <v>45727.38081018518</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -40882,7 +40882,7 @@
         <v>45736.51150462963</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -40939,7 +40939,7 @@
         <v>45686.40940972222</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -40996,7 +40996,7 @@
         <v>45103</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -41053,7 +41053,7 @@
         <v>44404</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -41110,7 +41110,7 @@
         <v>44620.42810185185</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -41167,7 +41167,7 @@
         <v>45666</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -41224,7 +41224,7 @@
         <v>45777</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -41281,7 +41281,7 @@
         <v>45747.46403935185</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -41338,7 +41338,7 @@
         <v>45776</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -41395,7 +41395,7 @@
         <v>44368</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -41457,7 +41457,7 @@
         <v>44810</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -41519,7 +41519,7 @@
         <v>45394</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -41576,7 +41576,7 @@
         <v>45539.47310185185</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -41633,7 +41633,7 @@
         <v>44644</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -41690,7 +41690,7 @@
         <v>45355</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -41747,7 +41747,7 @@
         <v>45390.31896990741</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -41804,7 +41804,7 @@
         <v>45786.43655092592</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -41866,7 +41866,7 @@
         <v>45786.4380787037</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -41928,7 +41928,7 @@
         <v>45266.82302083333</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -41985,7 +41985,7 @@
         <v>45786.60577546297</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -42047,7 +42047,7 @@
         <v>45786.60734953704</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -42109,7 +42109,7 @@
         <v>44946.81241898148</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -42166,7 +42166,7 @@
         <v>45328</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -42223,7 +42223,7 @@
         <v>45133.32862268519</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -42280,7 +42280,7 @@
         <v>45209.58063657407</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -42337,7 +42337,7 @@
         <v>45112</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -42399,7 +42399,7 @@
         <v>45797</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -42461,7 +42461,7 @@
         <v>45175.58421296296</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -42518,7 +42518,7 @@
         <v>45610.56269675926</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>

--- a/Översikt HEBY.xlsx
+++ b/Översikt HEBY.xlsx
@@ -575,7 +575,7 @@
         <v>45944.31111111111</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -681,7 +681,7 @@
         <v>45946.48280092593</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -785,7 +785,7 @@
         <v>45729.58457175926</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -880,7 +880,7 @@
         <v>45944.32907407408</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -982,7 +982,7 @@
         <v>44914</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1078,7 +1078,7 @@
         <v>45187</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1174,7 +1174,7 @@
         <v>45777</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1273,7 +1273,7 @@
         <v>45113</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1372,7 +1372,7 @@
         <v>45965</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1471,7 +1471,7 @@
         <v>45777</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1570,7 +1570,7 @@
         <v>45618.51541666667</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1668,7 +1668,7 @@
         <v>44914</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1762,7 +1762,7 @@
         <v>45601</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1860,7 +1860,7 @@
         <v>45240</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1949,7 +1949,7 @@
         <v>45117</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2042,7 +2042,7 @@
         <v>45687.57645833334</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2130,7 +2130,7 @@
         <v>45965</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2226,7 +2226,7 @@
         <v>45965.3762037037</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2322,7 +2322,7 @@
         <v>46070</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2410,7 +2410,7 @@
         <v>45573.49663194444</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2498,7 +2498,7 @@
         <v>45485</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2591,7 +2591,7 @@
         <v>45124</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2683,7 +2683,7 @@
         <v>45123</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2779,7 +2779,7 @@
         <v>44573</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2871,7 +2871,7 @@
         <v>46003.51346064815</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2962,7 +2962,7 @@
         <v>45222</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3058,7 +3058,7 @@
         <v>45618.5216087963</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3152,7 +3152,7 @@
         <v>45313</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3242,7 +3242,7 @@
         <v>45824.63471064815</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3328,7 +3328,7 @@
         <v>45930.8557175926</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3414,7 +3414,7 @@
         <v>45170</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3509,7 +3509,7 @@
         <v>45992.55565972222</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3599,7 +3599,7 @@
         <v>45993</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3689,7 +3689,7 @@
         <v>45014</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3775,7 +3775,7 @@
         <v>44847</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3864,7 +3864,7 @@
         <v>44858.36881944445</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3953,7 +3953,7 @@
         <v>44826.59002314815</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4038,7 +4038,7 @@
         <v>45093</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4127,7 +4127,7 @@
         <v>44376</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4212,7 +4212,7 @@
         <v>44609</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4297,7 +4297,7 @@
         <v>45453</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4387,7 +4387,7 @@
         <v>45883</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4481,7 +4481,7 @@
         <v>45944</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4566,7 +4566,7 @@
         <v>45946.38788194444</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4651,7 +4651,7 @@
         <v>45278.72756944445</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4745,7 +4745,7 @@
         <v>44308</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4834,7 +4834,7 @@
         <v>45622</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4924,7 +4924,7 @@
         <v>45982.42078703704</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5009,7 +5009,7 @@
         <v>45982.41844907407</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5094,7 +5094,7 @@
         <v>45985.52939814814</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5183,7 +5183,7 @@
         <v>45982.41523148148</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5268,7 +5268,7 @@
         <v>44568</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5353,7 +5353,7 @@
         <v>45617</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5447,7 +5447,7 @@
         <v>45993.99002314815</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5532,7 +5532,7 @@
         <v>45762</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5617,7 +5617,7 @@
         <v>44395</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5706,7 +5706,7 @@
         <v>46055.65600694445</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5791,7 +5791,7 @@
         <v>44501.46684027778</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5880,7 +5880,7 @@
         <v>45098</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5965,7 +5965,7 @@
         <v>45355</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6050,7 +6050,7 @@
         <v>46071.48416666667</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6135,7 +6135,7 @@
         <v>45469</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6220,7 +6220,7 @@
         <v>45231.66261574074</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6305,7 +6305,7 @@
         <v>44370</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6399,7 +6399,7 @@
         <v>44376</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6484,7 +6484,7 @@
         <v>45777</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6574,7 +6574,7 @@
         <v>45419</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6664,7 +6664,7 @@
         <v>45799</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6758,7 +6758,7 @@
         <v>45411</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6852,7 +6852,7 @@
         <v>44756</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6914,7 +6914,7 @@
         <v>44886</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6971,7 +6971,7 @@
         <v>44278</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -7028,7 +7028,7 @@
         <v>44334</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7085,7 +7085,7 @@
         <v>44309</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7142,7 +7142,7 @@
         <v>44404</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7199,7 +7199,7 @@
         <v>44404</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7256,7 +7256,7 @@
         <v>44404</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7313,7 +7313,7 @@
         <v>44620</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7370,7 +7370,7 @@
         <v>44477</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7427,7 +7427,7 @@
         <v>44454.586875</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7484,7 +7484,7 @@
         <v>44847</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7541,7 +7541,7 @@
         <v>44431</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7598,7 +7598,7 @@
         <v>44754</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7655,7 +7655,7 @@
         <v>44250.4206712963</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7712,7 +7712,7 @@
         <v>44615.68924768519</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7769,7 +7769,7 @@
         <v>44466</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7826,7 +7826,7 @@
         <v>44315</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7883,7 +7883,7 @@
         <v>44516</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7940,7 +7940,7 @@
         <v>44511.45233796296</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7997,7 +7997,7 @@
         <v>44586</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -8054,7 +8054,7 @@
         <v>44585</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -8111,7 +8111,7 @@
         <v>44285</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -8168,7 +8168,7 @@
         <v>44757.5916087963</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -8225,7 +8225,7 @@
         <v>44508</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -8282,7 +8282,7 @@
         <v>44509</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -8339,7 +8339,7 @@
         <v>44285</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8396,7 +8396,7 @@
         <v>44259</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8453,7 +8453,7 @@
         <v>44445</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8510,7 +8510,7 @@
         <v>44756.58483796296</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8572,7 +8572,7 @@
         <v>44578</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8634,7 +8634,7 @@
         <v>44480.4409837963</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8691,7 +8691,7 @@
         <v>44788.35174768518</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8748,7 +8748,7 @@
         <v>44852.64951388889</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8805,7 +8805,7 @@
         <v>44508.53688657407</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8867,7 +8867,7 @@
         <v>44509</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8924,7 +8924,7 @@
         <v>44411</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8981,7 +8981,7 @@
         <v>44505</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -9038,7 +9038,7 @@
         <v>44371</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -9100,7 +9100,7 @@
         <v>44308</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -9162,7 +9162,7 @@
         <v>44389</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -9219,7 +9219,7 @@
         <v>44390</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -9281,7 +9281,7 @@
         <v>44280</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -9338,7 +9338,7 @@
         <v>44452.63615740741</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9395,7 +9395,7 @@
         <v>44517.59695601852</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9457,7 +9457,7 @@
         <v>44333</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9514,7 +9514,7 @@
         <v>44360</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9571,7 +9571,7 @@
         <v>44516.55341435185</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9628,7 +9628,7 @@
         <v>44565</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9685,7 +9685,7 @@
         <v>44844</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9742,7 +9742,7 @@
         <v>44712</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9799,7 +9799,7 @@
         <v>44351.32269675926</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9856,7 +9856,7 @@
         <v>44433.62458333333</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9913,7 +9913,7 @@
         <v>44550</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9970,7 +9970,7 @@
         <v>44832.68144675926</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -10027,7 +10027,7 @@
         <v>44524</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -10084,7 +10084,7 @@
         <v>44735</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -10141,7 +10141,7 @@
         <v>44509</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -10198,7 +10198,7 @@
         <v>44743.633125</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -10255,7 +10255,7 @@
         <v>44519</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -10317,7 +10317,7 @@
         <v>44287</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10374,7 +10374,7 @@
         <v>44850.31813657407</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10431,7 +10431,7 @@
         <v>44614.36751157408</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10488,7 +10488,7 @@
         <v>44491.67335648148</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10545,7 +10545,7 @@
         <v>44725.37670138889</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10602,7 +10602,7 @@
         <v>44522.3946875</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10659,7 +10659,7 @@
         <v>44364.34809027778</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10716,7 +10716,7 @@
         <v>44832</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10773,7 +10773,7 @@
         <v>44748</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10830,7 +10830,7 @@
         <v>44368</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10887,7 +10887,7 @@
         <v>44249</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10944,7 +10944,7 @@
         <v>44459</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -11001,7 +11001,7 @@
         <v>44459</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -11058,7 +11058,7 @@
         <v>44342</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -11120,7 +11120,7 @@
         <v>44382.32331018519</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -11177,7 +11177,7 @@
         <v>44551</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -11234,7 +11234,7 @@
         <v>44349</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -11291,7 +11291,7 @@
         <v>44685</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -11348,7 +11348,7 @@
         <v>44769</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11405,7 +11405,7 @@
         <v>44650.66174768518</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11467,7 +11467,7 @@
         <v>44722.88414351852</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11524,7 +11524,7 @@
         <v>44655.59482638889</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11581,7 +11581,7 @@
         <v>44700.53931712963</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11638,7 +11638,7 @@
         <v>44532</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11695,7 +11695,7 @@
         <v>44753.43171296296</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11752,7 +11752,7 @@
         <v>44614.53547453704</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11809,7 +11809,7 @@
         <v>44573</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11866,7 +11866,7 @@
         <v>45231.863125</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11923,7 +11923,7 @@
         <v>45673.5980787037</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11980,7 +11980,7 @@
         <v>44841.6265625</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -12037,7 +12037,7 @@
         <v>44942.40657407408</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -12094,7 +12094,7 @@
         <v>44609.66260416667</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -12151,7 +12151,7 @@
         <v>44552</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -12208,7 +12208,7 @@
         <v>44300</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -12265,7 +12265,7 @@
         <v>45645.46418981482</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -12322,7 +12322,7 @@
         <v>44802</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12379,7 +12379,7 @@
         <v>44858.36759259259</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12436,7 +12436,7 @@
         <v>45133.31494212963</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12493,7 +12493,7 @@
         <v>45714.46084490741</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12550,7 +12550,7 @@
         <v>44732</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12607,7 +12607,7 @@
         <v>44697.39297453704</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12664,7 +12664,7 @@
         <v>45630</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12721,7 +12721,7 @@
         <v>45599</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12783,7 +12783,7 @@
         <v>44849.86905092592</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12840,7 +12840,7 @@
         <v>45117</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12897,7 +12897,7 @@
         <v>45670</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12954,7 +12954,7 @@
         <v>44694</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -13011,7 +13011,7 @@
         <v>45035.75166666666</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -13068,7 +13068,7 @@
         <v>44865.38575231482</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -13125,7 +13125,7 @@
         <v>44391</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -13182,7 +13182,7 @@
         <v>45749.80582175926</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -13239,7 +13239,7 @@
         <v>45748.62291666667</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -13296,7 +13296,7 @@
         <v>45645.47047453704</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13353,7 +13353,7 @@
         <v>45539.51753472222</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13410,7 +13410,7 @@
         <v>45688</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13467,7 +13467,7 @@
         <v>44917.65171296296</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13524,7 +13524,7 @@
         <v>44543</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13581,7 +13581,7 @@
         <v>45215</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13638,7 +13638,7 @@
         <v>44788</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13695,7 +13695,7 @@
         <v>45699.54886574074</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13752,7 +13752,7 @@
         <v>44810</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13814,7 +13814,7 @@
         <v>45705</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13876,7 +13876,7 @@
         <v>45331</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13933,7 +13933,7 @@
         <v>45266.83394675926</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13990,7 +13990,7 @@
         <v>44684</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -14052,7 +14052,7 @@
         <v>44684</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -14114,7 +14114,7 @@
         <v>44960.48622685186</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -14171,7 +14171,7 @@
         <v>45770.51020833333</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -14228,7 +14228,7 @@
         <v>44875</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -14285,7 +14285,7 @@
         <v>44522</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14342,7 +14342,7 @@
         <v>44734.51694444445</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14399,7 +14399,7 @@
         <v>44264</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14461,7 +14461,7 @@
         <v>45761</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14518,7 +14518,7 @@
         <v>45715.47774305556</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14575,7 +14575,7 @@
         <v>44477</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14637,7 +14637,7 @@
         <v>45630</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14694,7 +14694,7 @@
         <v>45111</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14751,7 +14751,7 @@
         <v>44844.57619212963</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14808,7 +14808,7 @@
         <v>44862</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14865,7 +14865,7 @@
         <v>45539.50813657408</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14922,7 +14922,7 @@
         <v>44914.41196759259</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14979,7 +14979,7 @@
         <v>44913</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -15036,7 +15036,7 @@
         <v>44538</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -15093,7 +15093,7 @@
         <v>45439.5318287037</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -15150,7 +15150,7 @@
         <v>45293</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -15207,7 +15207,7 @@
         <v>45519</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -15264,7 +15264,7 @@
         <v>45547.32439814815</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15321,7 +15321,7 @@
         <v>44574</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15378,7 +15378,7 @@
         <v>45818</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15435,7 +15435,7 @@
         <v>45818</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15497,7 +15497,7 @@
         <v>45818.59925925926</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15554,7 +15554,7 @@
         <v>44984</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15611,7 +15611,7 @@
         <v>45256.91207175926</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15668,7 +15668,7 @@
         <v>45673</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15725,7 +15725,7 @@
         <v>45321</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15782,7 +15782,7 @@
         <v>45818.59078703704</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15839,7 +15839,7 @@
         <v>45884.32216435186</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15896,7 +15896,7 @@
         <v>45884</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15958,7 +15958,7 @@
         <v>45884.31611111111</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -16015,7 +16015,7 @@
         <v>44886</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -16072,7 +16072,7 @@
         <v>45820</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -16129,7 +16129,7 @@
         <v>45279</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -16186,7 +16186,7 @@
         <v>45825.58105324074</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -16243,7 +16243,7 @@
         <v>45687</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16305,7 +16305,7 @@
         <v>45825.59010416667</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16362,7 +16362,7 @@
         <v>45889</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16424,7 +16424,7 @@
         <v>45825.49863425926</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16481,7 +16481,7 @@
         <v>45317</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16538,7 +16538,7 @@
         <v>44917</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16595,7 +16595,7 @@
         <v>45827.64317129629</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16657,7 +16657,7 @@
         <v>45826.48962962963</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16714,7 +16714,7 @@
         <v>45891.6290162037</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16771,7 +16771,7 @@
         <v>45058</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16833,7 +16833,7 @@
         <v>45891.55961805556</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16890,7 +16890,7 @@
         <v>45453</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16947,7 +16947,7 @@
         <v>45827.60844907408</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -17009,7 +17009,7 @@
         <v>44431</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -17066,7 +17066,7 @@
         <v>45723.5122337963</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -17128,7 +17128,7 @@
         <v>45832</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -17185,7 +17185,7 @@
         <v>44984</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -17242,7 +17242,7 @@
         <v>45764</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17304,7 +17304,7 @@
         <v>45764</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17366,7 +17366,7 @@
         <v>45938.65021990741</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17423,7 +17423,7 @@
         <v>45832.57018518518</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17480,7 +17480,7 @@
         <v>45898.58221064815</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17537,7 +17537,7 @@
         <v>45898</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17599,7 +17599,7 @@
         <v>45833.41546296296</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17661,7 +17661,7 @@
         <v>45898.6009375</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17718,7 +17718,7 @@
         <v>45832</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17775,7 +17775,7 @@
         <v>45502</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17832,7 +17832,7 @@
         <v>45006.6362962963</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17889,7 +17889,7 @@
         <v>45834.54577546296</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17946,7 +17946,7 @@
         <v>45567</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -18003,7 +18003,7 @@
         <v>45834.56706018518</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -18060,7 +18060,7 @@
         <v>45737.62077546296</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -18117,7 +18117,7 @@
         <v>45838</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -18174,7 +18174,7 @@
         <v>44914</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -18231,7 +18231,7 @@
         <v>45793</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18293,7 +18293,7 @@
         <v>45218</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18350,7 +18350,7 @@
         <v>45453</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18412,7 +18412,7 @@
         <v>45838.37053240741</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18469,7 +18469,7 @@
         <v>45838</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18526,7 +18526,7 @@
         <v>45838.53759259259</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18583,7 +18583,7 @@
         <v>44781.48400462963</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18640,7 +18640,7 @@
         <v>45817.38511574074</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18697,7 +18697,7 @@
         <v>45825</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18759,7 +18759,7 @@
         <v>44984.57246527778</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18816,7 +18816,7 @@
         <v>44984</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18878,7 +18878,7 @@
         <v>45720.3462037037</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18935,7 +18935,7 @@
         <v>45840</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18992,7 +18992,7 @@
         <v>44623.45859953704</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -19049,7 +19049,7 @@
         <v>44601</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -19106,7 +19106,7 @@
         <v>45845</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -19163,7 +19163,7 @@
         <v>45847.64015046296</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -19220,7 +19220,7 @@
         <v>45825</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19282,7 +19282,7 @@
         <v>45847.574375</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19339,7 +19339,7 @@
         <v>45912.64322916666</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19396,7 +19396,7 @@
         <v>45845</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19453,7 +19453,7 @@
         <v>44934.47055555556</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19510,7 +19510,7 @@
         <v>45723.45540509259</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19572,7 +19572,7 @@
         <v>45849.47375</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19629,7 +19629,7 @@
         <v>45294.65653935185</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19686,7 +19686,7 @@
         <v>45106.63622685185</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19743,7 +19743,7 @@
         <v>45092</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19800,7 +19800,7 @@
         <v>45302.52365740741</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19857,7 +19857,7 @@
         <v>45092</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19914,7 +19914,7 @@
         <v>45339.74579861111</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19971,7 +19971,7 @@
         <v>45331.44074074074</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -20028,7 +20028,7 @@
         <v>45331</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -20085,7 +20085,7 @@
         <v>45317</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -20142,7 +20142,7 @@
         <v>45317</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -20199,7 +20199,7 @@
         <v>45852</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -20261,7 +20261,7 @@
         <v>45282</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20318,7 +20318,7 @@
         <v>45617</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20375,7 +20375,7 @@
         <v>44614.54268518519</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20432,7 +20432,7 @@
         <v>45852</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20489,7 +20489,7 @@
         <v>45854.40615740741</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20546,7 +20546,7 @@
         <v>45853.7616087963</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20603,7 +20603,7 @@
         <v>45519.44510416667</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20660,7 +20660,7 @@
         <v>45519</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20717,7 +20717,7 @@
         <v>45586</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20779,7 +20779,7 @@
         <v>44701</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20841,7 +20841,7 @@
         <v>45922.44664351852</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20898,7 +20898,7 @@
         <v>45922.40297453704</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20955,7 +20955,7 @@
         <v>45922.47185185185</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -21012,7 +21012,7 @@
         <v>45925</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -21069,7 +21069,7 @@
         <v>44984.43454861111</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -21126,7 +21126,7 @@
         <v>45867.3707175926</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -21188,7 +21188,7 @@
         <v>45119</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21250,7 +21250,7 @@
         <v>45132.77611111111</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21307,7 +21307,7 @@
         <v>45925</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21364,7 +21364,7 @@
         <v>45342.88319444445</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21421,7 +21421,7 @@
         <v>45342.88614583333</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21478,7 +21478,7 @@
         <v>44364</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21540,7 +21540,7 @@
         <v>45929</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21597,7 +21597,7 @@
         <v>45926.37047453703</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21659,7 +21659,7 @@
         <v>45926.33668981482</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21716,7 +21716,7 @@
         <v>45817.37181712963</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21773,7 +21773,7 @@
         <v>45607</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21835,7 +21835,7 @@
         <v>45930.70885416667</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21897,7 +21897,7 @@
         <v>45930.61623842592</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21959,7 +21959,7 @@
         <v>45674</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -22016,7 +22016,7 @@
         <v>45932.42315972222</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -22078,7 +22078,7 @@
         <v>45390</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -22135,7 +22135,7 @@
         <v>45932.47104166666</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -22197,7 +22197,7 @@
         <v>44533</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -22254,7 +22254,7 @@
         <v>45930.87245370371</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22311,7 +22311,7 @@
         <v>45930.86828703704</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22368,7 +22368,7 @@
         <v>45098</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22425,7 +22425,7 @@
         <v>45876.61597222222</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22482,7 +22482,7 @@
         <v>45932.38228009259</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22544,7 +22544,7 @@
         <v>44754</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22606,7 +22606,7 @@
         <v>45936.60976851852</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22663,7 +22663,7 @@
         <v>44697</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22725,7 +22725,7 @@
         <v>45883.63840277777</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22782,7 +22782,7 @@
         <v>45882</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22844,7 +22844,7 @@
         <v>44900.66995370371</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22901,7 +22901,7 @@
         <v>44701.56520833333</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22958,7 +22958,7 @@
         <v>45777</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -23015,7 +23015,7 @@
         <v>45883.56189814815</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -23072,7 +23072,7 @@
         <v>45083</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -23129,7 +23129,7 @@
         <v>45006.57304398148</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -23186,7 +23186,7 @@
         <v>45884.30456018518</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -23243,7 +23243,7 @@
         <v>45308.65503472222</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23300,7 +23300,7 @@
         <v>45943.66027777778</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23357,7 +23357,7 @@
         <v>45943.46789351852</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23414,7 +23414,7 @@
         <v>44833</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23471,7 +23471,7 @@
         <v>44978.58922453703</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23528,7 +23528,7 @@
         <v>45944.34373842592</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23585,7 +23585,7 @@
         <v>45638.35512731481</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23642,7 +23642,7 @@
         <v>44568</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23699,7 +23699,7 @@
         <v>45945</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23761,7 +23761,7 @@
         <v>44405</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23818,7 +23818,7 @@
         <v>45946.49408564815</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23875,7 +23875,7 @@
         <v>45113</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23932,7 +23932,7 @@
         <v>45946.7803125</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23989,7 +23989,7 @@
         <v>45947.61815972222</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -24051,7 +24051,7 @@
         <v>44939</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -24108,7 +24108,7 @@
         <v>45321.5900462963</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -24165,7 +24165,7 @@
         <v>44734.72414351852</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -24222,7 +24222,7 @@
         <v>45950.42271990741</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -24279,7 +24279,7 @@
         <v>45951.52226851852</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24336,7 +24336,7 @@
         <v>45952.68802083333</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24393,7 +24393,7 @@
         <v>45364</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24450,7 +24450,7 @@
         <v>45952.69247685185</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24507,7 +24507,7 @@
         <v>45090.80862268519</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24569,7 +24569,7 @@
         <v>45317</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24626,7 +24626,7 @@
         <v>45317</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24683,7 +24683,7 @@
         <v>44480</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24740,7 +24740,7 @@
         <v>45058</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24802,7 +24802,7 @@
         <v>45390.55424768518</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24859,7 +24859,7 @@
         <v>45736.3927662037</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24916,7 +24916,7 @@
         <v>45181.63969907408</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24973,7 +24973,7 @@
         <v>45957.50532407407</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -25030,7 +25030,7 @@
         <v>45958.55548611111</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -25087,7 +25087,7 @@
         <v>45351</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -25144,7 +25144,7 @@
         <v>45960.43714120371</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -25201,7 +25201,7 @@
         <v>45114</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25258,7 +25258,7 @@
         <v>45964.59248842593</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -25315,7 +25315,7 @@
         <v>45965.33782407407</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25372,7 +25372,7 @@
         <v>45967.62597222222</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25429,7 +25429,7 @@
         <v>45967.628125</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25486,7 +25486,7 @@
         <v>44694</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25548,7 +25548,7 @@
         <v>45209.58532407408</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25605,7 +25605,7 @@
         <v>45967.62387731481</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25662,7 +25662,7 @@
         <v>45966.65951388889</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25719,7 +25719,7 @@
         <v>45966.38270833333</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25776,7 +25776,7 @@
         <v>45966.35333333333</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25833,7 +25833,7 @@
         <v>45197.5709375</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25890,7 +25890,7 @@
         <v>45971.65747685185</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25947,7 +25947,7 @@
         <v>45971.66030092593</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -26004,7 +26004,7 @@
         <v>45175.6459375</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -26061,7 +26061,7 @@
         <v>45971.42809027778</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -26118,7 +26118,7 @@
         <v>45968.6285300926</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -26175,7 +26175,7 @@
         <v>45971.57480324074</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -26232,7 +26232,7 @@
         <v>45971.58236111111</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -26289,7 +26289,7 @@
         <v>45972.39640046296</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -26346,7 +26346,7 @@
         <v>45972.60763888889</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -26403,7 +26403,7 @@
         <v>45972.67861111111</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -26460,7 +26460,7 @@
         <v>45737.63353009259</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26517,7 +26517,7 @@
         <v>45740.63020833334</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26574,7 +26574,7 @@
         <v>45590</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26636,7 +26636,7 @@
         <v>45418</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26693,7 +26693,7 @@
         <v>45723.55233796296</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26755,7 +26755,7 @@
         <v>45218</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26812,7 +26812,7 @@
         <v>45050</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26894,7 +26894,7 @@
         <v>45250</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26951,7 +26951,7 @@
         <v>44531</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -27008,7 +27008,7 @@
         <v>45980.39798611111</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -27065,7 +27065,7 @@
         <v>45980.43013888889</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -27122,7 +27122,7 @@
         <v>45980.43474537037</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -27179,7 +27179,7 @@
         <v>44511</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -27236,7 +27236,7 @@
         <v>45981.58480324074</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -27293,7 +27293,7 @@
         <v>45551.87931712963</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -27350,7 +27350,7 @@
         <v>45982.39260416666</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -27407,7 +27407,7 @@
         <v>45982.3860300926</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -27464,7 +27464,7 @@
         <v>45029</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -27521,7 +27521,7 @@
         <v>45983.78957175926</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27578,7 +27578,7 @@
         <v>44314</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27640,7 +27640,7 @@
         <v>45951.46150462963</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27702,7 +27702,7 @@
         <v>45856.43204861111</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27764,7 +27764,7 @@
         <v>45883.57503472222</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27826,7 +27826,7 @@
         <v>45951.61320601852</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27888,7 +27888,7 @@
         <v>45911.61762731482</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27950,7 +27950,7 @@
         <v>45852.49586805556</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -28012,7 +28012,7 @@
         <v>45856.41048611111</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -28074,7 +28074,7 @@
         <v>45406.61835648148</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -28131,7 +28131,7 @@
         <v>45599</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -28193,7 +28193,7 @@
         <v>45852.58091435185</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -28255,7 +28255,7 @@
         <v>45856.40909722223</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -28317,7 +28317,7 @@
         <v>45896.47104166666</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -28379,7 +28379,7 @@
         <v>45852.48943287037</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -28441,7 +28441,7 @@
         <v>45883.5737962963</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -28503,7 +28503,7 @@
         <v>45895.63981481481</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -28565,7 +28565,7 @@
         <v>45883.47369212963</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -28627,7 +28627,7 @@
         <v>45904.50881944445</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28689,7 +28689,7 @@
         <v>45895.61859953704</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28751,7 +28751,7 @@
         <v>45895.68223379629</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28813,7 +28813,7 @@
         <v>45951.59496527778</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28875,7 +28875,7 @@
         <v>45904.51081018519</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28937,7 +28937,7 @@
         <v>45992.67348379629</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28994,7 +28994,7 @@
         <v>44362</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -29056,7 +29056,7 @@
         <v>45994.62863425926</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -29113,7 +29113,7 @@
         <v>45128.58974537037</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -29170,7 +29170,7 @@
         <v>44644.64444444444</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -29227,7 +29227,7 @@
         <v>44942.44016203703</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -29284,7 +29284,7 @@
         <v>45994.38209490741</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -29341,7 +29341,7 @@
         <v>45455</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -29398,7 +29398,7 @@
         <v>45994.64087962963</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -29455,7 +29455,7 @@
         <v>46037.67167824074</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -29512,7 +29512,7 @@
         <v>45013</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -29569,7 +29569,7 @@
         <v>45994.54125</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -29626,7 +29626,7 @@
         <v>45993.98945601852</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -29683,7 +29683,7 @@
         <v>45266.80237268518</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29740,7 +29740,7 @@
         <v>45999.47586805555</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -29797,7 +29797,7 @@
         <v>45662.65241898148</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -29854,7 +29854,7 @@
         <v>45999.50025462963</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29911,7 +29911,7 @@
         <v>45092.61706018518</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29968,7 +29968,7 @@
         <v>44659</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -30025,7 +30025,7 @@
         <v>44694</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -30082,7 +30082,7 @@
         <v>45622.6241087963</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -30139,7 +30139,7 @@
         <v>46045.61635416667</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -30196,7 +30196,7 @@
         <v>45639.64104166667</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -30253,7 +30253,7 @@
         <v>45639</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -30310,7 +30310,7 @@
         <v>45589.4975462963</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -30367,7 +30367,7 @@
         <v>45337</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -30424,7 +30424,7 @@
         <v>44272</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -30481,7 +30481,7 @@
         <v>45589.48607638889</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -30538,7 +30538,7 @@
         <v>46044.56475694444</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -30595,7 +30595,7 @@
         <v>46003.42837962963</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -30652,7 +30652,7 @@
         <v>46003.43225694444</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -30709,7 +30709,7 @@
         <v>46003.43425925926</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -30766,7 +30766,7 @@
         <v>45181.64949074074</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -30823,7 +30823,7 @@
         <v>45062</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -30880,7 +30880,7 @@
         <v>46037</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -30937,7 +30937,7 @@
         <v>46037</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -30994,7 +30994,7 @@
         <v>45135</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -31051,7 +31051,7 @@
         <v>46005</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -31108,7 +31108,7 @@
         <v>46048.41511574074</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -31165,7 +31165,7 @@
         <v>46006.42108796296</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -31222,7 +31222,7 @@
         <v>46007.55006944444</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -31279,7 +31279,7 @@
         <v>45364</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -31336,7 +31336,7 @@
         <v>46037</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -31393,7 +31393,7 @@
         <v>44434.43853009259</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -31450,7 +31450,7 @@
         <v>44512</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -31512,7 +31512,7 @@
         <v>46048.39959490741</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -31569,7 +31569,7 @@
         <v>44903</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -31626,7 +31626,7 @@
         <v>46052.53197916667</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -31683,7 +31683,7 @@
         <v>44802.44090277778</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -31740,7 +31740,7 @@
         <v>44802.4437962963</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -31797,7 +31797,7 @@
         <v>46051</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -31859,7 +31859,7 @@
         <v>44734.5185300926</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -31916,7 +31916,7 @@
         <v>44517.6352662037</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -31978,7 +31978,7 @@
         <v>46052.62479166667</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -32035,7 +32035,7 @@
         <v>44840.43806712963</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -32112,7 +32112,7 @@
         <v>46052.3639699074</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -32169,7 +32169,7 @@
         <v>44558.56614583333</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -32226,7 +32226,7 @@
         <v>45250</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -32283,7 +32283,7 @@
         <v>46056.49887731481</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -32340,7 +32340,7 @@
         <v>46057.5896412037</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -32402,7 +32402,7 @@
         <v>45243.68689814815</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -32459,7 +32459,7 @@
         <v>44791</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -32516,7 +32516,7 @@
         <v>46056.57625</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -32573,7 +32573,7 @@
         <v>44945.40924768519</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -32630,7 +32630,7 @@
         <v>46057.61201388889</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -32692,7 +32692,7 @@
         <v>46010</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -32749,7 +32749,7 @@
         <v>46058.67237268519</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -32806,7 +32806,7 @@
         <v>46058.55431712963</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -32863,7 +32863,7 @@
         <v>45624</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -32920,7 +32920,7 @@
         <v>46058.56256944445</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -32977,7 +32977,7 @@
         <v>46058.393125</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -33034,7 +33034,7 @@
         <v>45117</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -33091,7 +33091,7 @@
         <v>44974</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -33148,7 +33148,7 @@
         <v>45113</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -33210,7 +33210,7 @@
         <v>45132.79101851852</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -33267,7 +33267,7 @@
         <v>45132.80835648148</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -33324,7 +33324,7 @@
         <v>45132.82081018519</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -33381,7 +33381,7 @@
         <v>46063.49122685185</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -33438,7 +33438,7 @@
         <v>46063.51101851852</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -33495,7 +33495,7 @@
         <v>45050</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -33557,7 +33557,7 @@
         <v>45608</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -33614,7 +33614,7 @@
         <v>46059</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -33671,7 +33671,7 @@
         <v>45411.49923611111</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -33728,7 +33728,7 @@
         <v>44944.34613425926</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -33785,7 +33785,7 @@
         <v>45566.65292824074</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -33842,7 +33842,7 @@
         <v>46023.47248842593</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -33899,7 +33899,7 @@
         <v>46023.47561342592</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -33956,7 +33956,7 @@
         <v>46023.45719907407</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -34013,7 +34013,7 @@
         <v>45030.54038194445</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -34070,7 +34070,7 @@
         <v>45006</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -34127,7 +34127,7 @@
         <v>45117</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -34184,7 +34184,7 @@
         <v>44964.74861111111</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -34241,7 +34241,7 @@
         <v>45195.52546296296</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -34298,7 +34298,7 @@
         <v>45138</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -34355,7 +34355,7 @@
         <v>45426.68497685185</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -34412,7 +34412,7 @@
         <v>46070.71199074074</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -34469,7 +34469,7 @@
         <v>46070.68413194444</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -34526,7 +34526,7 @@
         <v>46070.69023148148</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -34583,7 +34583,7 @@
         <v>46070.71038194445</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -34640,7 +34640,7 @@
         <v>46071.48775462963</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -34697,7 +34697,7 @@
         <v>45166</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -34754,7 +34754,7 @@
         <v>44435</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -34811,7 +34811,7 @@
         <v>45373.63015046297</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -34868,7 +34868,7 @@
         <v>45216.45452546296</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -34925,7 +34925,7 @@
         <v>46070.72292824074</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -34982,7 +34982,7 @@
         <v>45662.6995949074</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -35039,7 +35039,7 @@
         <v>45103</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -35101,7 +35101,7 @@
         <v>45719.61053240741</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -35158,7 +35158,7 @@
         <v>46072.32482638889</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -35215,7 +35215,7 @@
         <v>46072.33219907407</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -35272,7 +35272,7 @@
         <v>45376.36833333333</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -35329,7 +35329,7 @@
         <v>46070</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -35386,7 +35386,7 @@
         <v>45083</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -35443,7 +35443,7 @@
         <v>44944.41800925926</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -35500,7 +35500,7 @@
         <v>46073.37952546297</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -35557,7 +35557,7 @@
         <v>46073.32519675926</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -35614,7 +35614,7 @@
         <v>45723.51342592593</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -35676,7 +35676,7 @@
         <v>45723.55184027777</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -35738,7 +35738,7 @@
         <v>45379.55935185185</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -35795,7 +35795,7 @@
         <v>44574</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -35852,7 +35852,7 @@
         <v>45243.42628472222</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -35909,7 +35909,7 @@
         <v>45117</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -35986,7 +35986,7 @@
         <v>44586.45454861111</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -36043,7 +36043,7 @@
         <v>44491</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -36100,7 +36100,7 @@
         <v>45665.37409722222</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -36157,7 +36157,7 @@
         <v>45596</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -36214,7 +36214,7 @@
         <v>45537</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -36271,7 +36271,7 @@
         <v>44911</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -36328,7 +36328,7 @@
         <v>45317</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -36385,7 +36385,7 @@
         <v>44979.66287037037</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -36442,7 +36442,7 @@
         <v>45098.59533564815</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -36499,7 +36499,7 @@
         <v>45631</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -36556,7 +36556,7 @@
         <v>44888</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -36618,7 +36618,7 @@
         <v>44978.58017361111</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -36675,7 +36675,7 @@
         <v>45294</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -36737,7 +36737,7 @@
         <v>45726.55914351852</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -36794,7 +36794,7 @@
         <v>45532</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -36851,7 +36851,7 @@
         <v>45166</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -36908,7 +36908,7 @@
         <v>44984.57643518518</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -36965,7 +36965,7 @@
         <v>44943.64856481482</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -37022,7 +37022,7 @@
         <v>44943.67108796296</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -37079,7 +37079,7 @@
         <v>44944</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -37136,7 +37136,7 @@
         <v>45252</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -37198,7 +37198,7 @@
         <v>45208</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -37255,7 +37255,7 @@
         <v>44495</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -37312,7 +37312,7 @@
         <v>44914</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -37369,7 +37369,7 @@
         <v>44974</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -37426,7 +37426,7 @@
         <v>45173.4337962963</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -37483,7 +37483,7 @@
         <v>45173.43603009259</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -37540,7 +37540,7 @@
         <v>44956</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -37602,7 +37602,7 @@
         <v>44364.3353587963</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -37659,7 +37659,7 @@
         <v>45747.46694444444</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -37716,7 +37716,7 @@
         <v>45344.48746527778</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -37773,7 +37773,7 @@
         <v>44752.8631712963</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -37830,7 +37830,7 @@
         <v>45693.66539351852</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -37887,7 +37887,7 @@
         <v>45008</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -37944,7 +37944,7 @@
         <v>45723.45451388889</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -38006,7 +38006,7 @@
         <v>45370.73208333334</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -38068,7 +38068,7 @@
         <v>44602.72481481481</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -38125,7 +38125,7 @@
         <v>45050</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -38187,7 +38187,7 @@
         <v>44911.3789699074</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -38244,7 +38244,7 @@
         <v>44978.61866898148</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -38301,7 +38301,7 @@
         <v>45743</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -38358,7 +38358,7 @@
         <v>45664.44835648148</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -38415,7 +38415,7 @@
         <v>45422.31803240741</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -38472,7 +38472,7 @@
         <v>45099.57417824074</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -38529,7 +38529,7 @@
         <v>45706</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -38591,7 +38591,7 @@
         <v>45756</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -38648,7 +38648,7 @@
         <v>45231.56061342593</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -38705,7 +38705,7 @@
         <v>45511</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -38762,7 +38762,7 @@
         <v>45058</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -38824,7 +38824,7 @@
         <v>44993</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -38881,7 +38881,7 @@
         <v>45674</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -38938,7 +38938,7 @@
         <v>45572.6234837963</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -38995,7 +38995,7 @@
         <v>45770.51476851852</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -39052,7 +39052,7 @@
         <v>44823</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -39114,7 +39114,7 @@
         <v>44753</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -39171,7 +39171,7 @@
         <v>44299</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -39228,7 +39228,7 @@
         <v>45624</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -39285,7 +39285,7 @@
         <v>45118</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -39342,7 +39342,7 @@
         <v>45582.44432870371</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -39404,7 +39404,7 @@
         <v>44951</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -39461,7 +39461,7 @@
         <v>45705.45865740741</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -39518,7 +39518,7 @@
         <v>45195</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -39575,7 +39575,7 @@
         <v>45278</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -39632,7 +39632,7 @@
         <v>44916.41059027778</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -39689,7 +39689,7 @@
         <v>44753.43458333334</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -39746,7 +39746,7 @@
         <v>44613.66513888889</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -39803,7 +39803,7 @@
         <v>45075</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -39860,7 +39860,7 @@
         <v>44873.67304398148</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -39917,7 +39917,7 @@
         <v>45175.573125</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -39974,7 +39974,7 @@
         <v>45713</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -40031,7 +40031,7 @@
         <v>44981</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -40088,7 +40088,7 @@
         <v>45117</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -40145,7 +40145,7 @@
         <v>45117</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -40202,7 +40202,7 @@
         <v>45117</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -40259,7 +40259,7 @@
         <v>44441.68001157408</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -40316,7 +40316,7 @@
         <v>45250</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -40373,7 +40373,7 @@
         <v>44925.48966435185</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -40430,7 +40430,7 @@
         <v>45727.38081018518</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -40487,7 +40487,7 @@
         <v>45736.51150462963</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -40544,7 +40544,7 @@
         <v>45686.40940972222</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -40601,7 +40601,7 @@
         <v>45103</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -40658,7 +40658,7 @@
         <v>44404</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -40715,7 +40715,7 @@
         <v>44620.42810185185</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -40772,7 +40772,7 @@
         <v>45666</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -40829,7 +40829,7 @@
         <v>45777</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -40886,7 +40886,7 @@
         <v>45747.46403935185</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -40943,7 +40943,7 @@
         <v>45776</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -41000,7 +41000,7 @@
         <v>44368</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -41062,7 +41062,7 @@
         <v>44810</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -41124,7 +41124,7 @@
         <v>45394</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -41181,7 +41181,7 @@
         <v>45539.47310185185</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -41238,7 +41238,7 @@
         <v>44644</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -41295,7 +41295,7 @@
         <v>45355</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -41352,7 +41352,7 @@
         <v>45390.31896990741</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -41409,7 +41409,7 @@
         <v>45786.43655092592</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -41471,7 +41471,7 @@
         <v>45786.4380787037</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -41533,7 +41533,7 @@
         <v>45266.82302083333</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -41590,7 +41590,7 @@
         <v>45786.60577546297</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -41652,7 +41652,7 @@
         <v>45786.60734953704</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -41714,7 +41714,7 @@
         <v>44946.81241898148</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -41771,7 +41771,7 @@
         <v>45328</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -41828,7 +41828,7 @@
         <v>45133.32862268519</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -41885,7 +41885,7 @@
         <v>45209.58063657407</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -41942,7 +41942,7 @@
         <v>45112</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -42004,7 +42004,7 @@
         <v>45797</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -42066,7 +42066,7 @@
         <v>45175.58421296296</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -42123,7 +42123,7 @@
         <v>45610.56269675926</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -42180,7 +42180,7 @@
         <v>45547.57539351852</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -42237,7 +42237,7 @@
         <v>45519</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -42294,7 +42294,7 @@
         <v>45803.6384375</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -42351,7 +42351,7 @@
         <v>45803.63481481482</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -42408,7 +42408,7 @@
         <v>45705</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -42465,7 +42465,7 @@
         <v>45805.35634259259</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -42522,7 +42522,7 @@
         <v>45804.62568287037</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -42579,7 +42579,7 @@
         <v>45805.35449074074</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -42636,7 +42636,7 @@
         <v>45804.62293981481</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -42693,7 +42693,7 @@
         <v>45390.54846064815</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -42750,7 +42750,7 @@
         <v>45708</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -42807,7 +42807,7 @@
         <v>44984.56869212963</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -42864,7 +42864,7 @@
         <v>45628.46144675926</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -42921,7 +42921,7 @@
         <v>45680.50231481482</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -42978,7 +42978,7 @@
         <v>45596</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -43035,7 +43035,7 @@
         <v>45398.54893518519</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -43092,7 +43092,7 @@
         <v>45519.42024305555</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -43149,7 +43149,7 @@
         <v>45810.65658564815</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -43206,7 +43206,7 @@
         <v>45810.60292824074</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -43263,7 +43263,7 @@
         <v>45810.66966435185</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -43320,7 +43320,7 @@
         <v>45089</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
